--- a/BackTest/2019-10-19 BackTest CON.xlsx
+++ b/BackTest/2019-10-19 BackTest CON.xlsx
@@ -2114,7 +2114,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
         <v>6.099</v>
@@ -2165,7 +2165,7 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="K37" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>6.098000000000001</v>
@@ -2216,7 +2216,7 @@
         <v>0.04999999999999893</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>6.097</v>
@@ -2267,7 +2267,7 @@
         <v>0.05999999999999872</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>6.095000000000001</v>
@@ -2318,7 +2318,7 @@
         <v>0.05999999999999872</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>6.093000000000002</v>
@@ -2369,7 +2369,7 @@
         <v>0.06999999999999851</v>
       </c>
       <c r="K41" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L41" t="n">
         <v>6.090000000000002</v>
@@ -2420,7 +2420,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K42" t="n">
-        <v>-55.55555555555599</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L42" t="n">
         <v>6.085000000000002</v>
@@ -2471,7 +2471,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K43" t="n">
-        <v>-55.55555555555599</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L43" t="n">
         <v>6.080000000000002</v>
@@ -2522,7 +2522,7 @@
         <v>0.09999999999999876</v>
       </c>
       <c r="K44" t="n">
-        <v>-40.00000000000053</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L44" t="n">
         <v>6.076000000000001</v>
@@ -2573,7 +2573,7 @@
         <v>0.09999999999999876</v>
       </c>
       <c r="K45" t="n">
-        <v>-40.00000000000053</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L45" t="n">
         <v>6.072000000000001</v>
@@ -2624,7 +2624,7 @@
         <v>0.1099999999999985</v>
       </c>
       <c r="K46" t="n">
-        <v>-45.45454545454589</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L46" t="n">
         <v>6.067000000000001</v>
@@ -2675,7 +2675,7 @@
         <v>0.1099999999999985</v>
       </c>
       <c r="K47" t="n">
-        <v>-40.00000000000053</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L47" t="n">
         <v>6.064000000000002</v>
@@ -2726,7 +2726,7 @@
         <v>0.1099999999999985</v>
       </c>
       <c r="K48" t="n">
-        <v>-55.55555555555599</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L48" t="n">
         <v>6.06</v>
@@ -2777,7 +2777,7 @@
         <v>0.1199999999999983</v>
       </c>
       <c r="K49" t="n">
-        <v>-40.00000000000053</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L49" t="n">
         <v>6.058000000000002</v>
@@ -2828,7 +2828,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-27.27272727272683</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>6.057</v>
@@ -2879,7 +2879,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>-27.27272727272683</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L51" t="n">
         <v>6.057000000000001</v>
@@ -2930,7 +2930,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-27.27272727272683</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L52" t="n">
         <v>6.059000000000002</v>
@@ -2981,7 +2981,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-27.27272727272683</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L53" t="n">
         <v>6.061000000000003</v>
@@ -3032,7 +3032,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>-27.27272727272683</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L54" t="n">
         <v>6.062000000000003</v>
@@ -3083,7 +3083,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.27272727272683</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>6.063000000000002</v>
@@ -3134,7 +3134,7 @@
         <v>0.1399999999999988</v>
       </c>
       <c r="K56" t="n">
-        <v>-16.66666666666642</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>6.066000000000003</v>
@@ -3185,7 +3185,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K57" t="n">
-        <v>9.090909090908944</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>6.070000000000003</v>
@@ -3236,7 +3236,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>6.074000000000003</v>
@@ -3287,7 +3287,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K59" t="n">
-        <v>11.11111111111089</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>6.077000000000004</v>
@@ -3338,7 +3338,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K60" t="n">
-        <v>11.11111111111089</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>6.079000000000004</v>
@@ -3389,7 +3389,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K61" t="n">
-        <v>24.99999999999945</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>6.081000000000004</v>
@@ -3440,7 +3440,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K62" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
         <v>6.083000000000004</v>
@@ -3491,7 +3491,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K63" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
         <v>6.085000000000003</v>
@@ -3542,7 +3542,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K64" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>6.087000000000002</v>
@@ -3593,7 +3593,7 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="K65" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>6.089000000000002</v>
@@ -4102,9 +4102,7 @@
       <c r="J75" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K75" t="n">
-        <v>100</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>6.099999999999994</v>
       </c>
@@ -4153,9 +4151,7 @@
       <c r="J76" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K76" t="n">
-        <v>100</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4204,9 +4200,7 @@
       <c r="J77" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K77" t="n">
-        <v>100</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4255,9 +4249,7 @@
       <c r="J78" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K78" t="n">
-        <v>100</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4306,9 +4298,7 @@
       <c r="J79" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4357,9 +4347,7 @@
       <c r="J80" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K80" t="n">
-        <v>100</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4408,9 +4396,7 @@
       <c r="J81" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K81" t="n">
-        <v>100</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4459,9 +4445,7 @@
       <c r="J82" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K82" t="n">
-        <v>100</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4510,9 +4494,7 @@
       <c r="J83" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K83" t="n">
-        <v>100</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4561,9 +4543,7 @@
       <c r="J84" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K84" t="n">
-        <v>100</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -4612,9 +4592,7 @@
       <c r="J85" t="n">
         <v>0.1599999999999984</v>
       </c>
-      <c r="K85" t="n">
-        <v>100</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -6201,7 +6179,7 @@
         <v>0.1999999999999975</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>6.096999999999993</v>
@@ -6252,7 +6230,7 @@
         <v>0.1999999999999975</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>6.098999999999994</v>
@@ -6302,9 +6280,7 @@
       <c r="J119" t="n">
         <v>0.1999999999999975</v>
       </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -6353,9 +6329,7 @@
       <c r="J120" t="n">
         <v>0.1999999999999975</v>
       </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -6404,9 +6378,7 @@
       <c r="J121" t="n">
         <v>0.1999999999999975</v>
       </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>6.099999999999993</v>
       </c>
@@ -6456,7 +6428,7 @@
         <v>0.2099999999999982</v>
       </c>
       <c r="K122" t="n">
-        <v>20.00000000000142</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>6.100999999999993</v>
@@ -6507,7 +6479,7 @@
         <v>0.2099999999999982</v>
       </c>
       <c r="K123" t="n">
-        <v>20.00000000000142</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>6.101999999999993</v>
@@ -6558,7 +6530,7 @@
         <v>0.2099999999999982</v>
       </c>
       <c r="K124" t="n">
-        <v>20.00000000000142</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>6.102999999999994</v>
@@ -6609,7 +6581,7 @@
         <v>0.2099999999999982</v>
       </c>
       <c r="K125" t="n">
-        <v>20.00000000000142</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>6.103999999999994</v>
@@ -6660,7 +6632,7 @@
         <v>0.2299999999999978</v>
       </c>
       <c r="K126" t="n">
-        <v>42.85714285714358</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>6.106999999999994</v>
@@ -6711,7 +6683,7 @@
         <v>0.2399999999999975</v>
       </c>
       <c r="K127" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>6.110999999999994</v>
@@ -7170,7 +7142,7 @@
         <v>0.2799999999999976</v>
       </c>
       <c r="K136" t="n">
-        <v>75.00000000000055</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L136" t="n">
         <v>6.15099999999999</v>
@@ -7221,7 +7193,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K137" t="n">
-        <v>77.77777777777821</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L137" t="n">
         <v>6.153999999999989</v>
@@ -7272,7 +7244,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K138" t="n">
-        <v>77.77777777777821</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L138" t="n">
         <v>6.156999999999989</v>
@@ -7323,7 +7295,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K139" t="n">
-        <v>77.77777777777821</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L139" t="n">
         <v>6.159999999999989</v>
@@ -7374,7 +7346,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K140" t="n">
-        <v>77.77777777777821</v>
+        <v>50</v>
       </c>
       <c r="L140" t="n">
         <v>6.16299999999999</v>
@@ -7425,7 +7397,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K141" t="n">
-        <v>77.77777777777821</v>
+        <v>50</v>
       </c>
       <c r="L141" t="n">
         <v>6.16499999999999</v>
@@ -7476,7 +7448,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K142" t="n">
-        <v>75.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>6.166999999999989</v>
@@ -7527,7 +7499,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K143" t="n">
-        <v>75.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>6.167999999999989</v>
@@ -7578,7 +7550,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K144" t="n">
-        <v>75.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>6.16899999999999</v>
@@ -7629,7 +7601,7 @@
         <v>0.2899999999999974</v>
       </c>
       <c r="K145" t="n">
-        <v>75.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>6.16899999999999</v>
@@ -7679,9 +7651,7 @@
       <c r="J146" t="n">
         <v>0.2899999999999974</v>
       </c>
-      <c r="K146" t="n">
-        <v>66.66666666666717</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>6.16999999999999</v>
       </c>
@@ -7730,9 +7700,7 @@
       <c r="J147" t="n">
         <v>0.2899999999999974</v>
       </c>
-      <c r="K147" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>6.16999999999999</v>
       </c>
@@ -7781,9 +7749,7 @@
       <c r="J148" t="n">
         <v>0.2899999999999974</v>
       </c>
-      <c r="K148" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>6.16999999999999</v>
       </c>
@@ -7832,9 +7798,7 @@
       <c r="J149" t="n">
         <v>0.2899999999999974</v>
       </c>
-      <c r="K149" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>6.16999999999999</v>
       </c>
@@ -7883,9 +7847,7 @@
       <c r="J150" t="n">
         <v>0.2899999999999974</v>
       </c>
-      <c r="K150" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>6.16999999999999</v>
       </c>
@@ -7935,7 +7897,7 @@
         <v>0.349999999999997</v>
       </c>
       <c r="K151" t="n">
-        <v>-40.00000000000053</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>6.16399999999999</v>
@@ -7986,7 +7948,7 @@
         <v>0.349999999999997</v>
       </c>
       <c r="K152" t="n">
-        <v>-40.00000000000053</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>6.15799999999999</v>
@@ -8037,7 +7999,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K153" t="n">
-        <v>-27.27272727272786</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L153" t="n">
         <v>6.153999999999989</v>
@@ -8088,7 +8050,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K154" t="n">
-        <v>-27.27272727272786</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L154" t="n">
         <v>6.149999999999989</v>
@@ -8139,7 +8101,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K155" t="n">
-        <v>-40.00000000000053</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L155" t="n">
         <v>6.145999999999988</v>
@@ -8190,7 +8152,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K156" t="n">
-        <v>-33.33333333333399</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L156" t="n">
         <v>6.141999999999987</v>
@@ -8394,7 +8356,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K160" t="n">
-        <v>-50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>6.125999999999985</v>
@@ -8445,7 +8407,7 @@
         <v>0.3699999999999966</v>
       </c>
       <c r="K161" t="n">
-        <v>-50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>6.127999999999984</v>
@@ -8495,9 +8457,7 @@
       <c r="J162" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K162" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>6.129999999999984</v>
       </c>
@@ -8546,9 +8506,7 @@
       <c r="J163" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K163" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8597,9 +8555,7 @@
       <c r="J164" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K164" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8648,9 +8604,7 @@
       <c r="J165" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K165" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8699,9 +8653,7 @@
       <c r="J166" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K166" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8750,9 +8702,7 @@
       <c r="J167" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K167" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8801,9 +8751,7 @@
       <c r="J168" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K168" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8852,9 +8800,7 @@
       <c r="J169" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K169" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8903,9 +8849,7 @@
       <c r="J170" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K170" t="n">
-        <v>-50.00000000000055</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -8954,9 +8898,7 @@
       <c r="J171" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K171" t="n">
-        <v>100</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -9005,9 +8947,7 @@
       <c r="J172" t="n">
         <v>0.3699999999999966</v>
       </c>
-      <c r="K172" t="n">
-        <v>100</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>6.129999999999983</v>
       </c>
@@ -10300,7 +10240,7 @@
         <v>0.4199999999999955</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
         <v>6.12499999999998</v>
@@ -10351,7 +10291,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K199" t="n">
-        <v>42.85714285714358</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L199" t="n">
         <v>6.12899999999998</v>
@@ -10402,7 +10342,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K200" t="n">
-        <v>42.85714285714358</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L200" t="n">
         <v>6.13299999999998</v>
@@ -10453,7 +10393,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K201" t="n">
-        <v>42.85714285714358</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L201" t="n">
         <v>6.136999999999981</v>
@@ -10504,7 +10444,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K202" t="n">
-        <v>42.85714285714358</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L202" t="n">
         <v>6.140999999999982</v>
@@ -10555,7 +10495,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K203" t="n">
-        <v>42.85714285714358</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L203" t="n">
         <v>6.144999999999983</v>
@@ -10606,7 +10546,7 @@
         <v>0.4399999999999959</v>
       </c>
       <c r="K204" t="n">
-        <v>42.85714285714358</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L204" t="n">
         <v>6.147999999999983</v>
@@ -10657,7 +10597,7 @@
         <v>0.479999999999996</v>
       </c>
       <c r="K205" t="n">
-        <v>63.63636363636422</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L205" t="n">
         <v>6.154999999999982</v>
@@ -10708,7 +10648,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K206" t="n">
-        <v>38.46153846153836</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L206" t="n">
         <v>6.159999999999981</v>
@@ -10765,7 +10705,7 @@
         <v>0.5099999999999971</v>
       </c>
       <c r="K207" t="n">
-        <v>42.85714285714304</v>
+        <v>55.55555555555534</v>
       </c>
       <c r="L207" t="n">
         <v>6.166999999999982</v>
@@ -10824,7 +10764,7 @@
         <v>0.5099999999999971</v>
       </c>
       <c r="K208" t="n">
-        <v>42.85714285714304</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L208" t="n">
         <v>6.171999999999983</v>
@@ -10887,7 +10827,7 @@
         <v>0.5099999999999971</v>
       </c>
       <c r="K209" t="n">
-        <v>53.84615384615374</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L209" t="n">
         <v>6.174999999999983</v>
@@ -10950,7 +10890,7 @@
         <v>0.5199999999999969</v>
       </c>
       <c r="K210" t="n">
-        <v>57.14285714285696</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L210" t="n">
         <v>6.178999999999983</v>
@@ -11013,7 +10953,7 @@
         <v>0.5299999999999967</v>
       </c>
       <c r="K211" t="n">
-        <v>59.99999999999977</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L211" t="n">
         <v>6.183999999999983</v>
@@ -11076,7 +11016,7 @@
         <v>0.5299999999999967</v>
       </c>
       <c r="K212" t="n">
-        <v>59.99999999999977</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L212" t="n">
         <v>6.188999999999983</v>
@@ -11139,7 +11079,7 @@
         <v>0.5399999999999965</v>
       </c>
       <c r="K213" t="n">
-        <v>62.49999999999972</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L213" t="n">
         <v>6.194999999999983</v>
@@ -11200,7 +11140,7 @@
         <v>0.5399999999999965</v>
       </c>
       <c r="K214" t="n">
-        <v>59.99999999999977</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L214" t="n">
         <v>6.200999999999984</v>
@@ -11263,7 +11203,7 @@
         <v>0.5499999999999972</v>
       </c>
       <c r="K215" t="n">
-        <v>62.49999999999994</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>6.203999999999984</v>
@@ -11324,7 +11264,7 @@
         <v>0.5899999999999963</v>
       </c>
       <c r="K216" t="n">
-        <v>69.99999999999977</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>6.212999999999983</v>
@@ -11385,7 +11325,7 @@
         <v>0.6099999999999968</v>
       </c>
       <c r="K217" t="n">
-        <v>80.95238095238059</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>6.222999999999983</v>
@@ -11442,7 +11382,7 @@
         <v>0.639999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>81.81818181818153</v>
+        <v>100</v>
       </c>
       <c r="L218" t="n">
         <v>6.235999999999985</v>
@@ -11499,7 +11439,7 @@
         <v>0.6499999999999968</v>
       </c>
       <c r="K219" t="n">
-        <v>80.95238095238059</v>
+        <v>100</v>
       </c>
       <c r="L219" t="n">
         <v>6.249999999999984</v>
@@ -11556,7 +11496,7 @@
         <v>0.6599999999999966</v>
       </c>
       <c r="K220" t="n">
-        <v>81.81818181818144</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>6.263999999999984</v>
@@ -11613,7 +11553,7 @@
         <v>0.6899999999999968</v>
       </c>
       <c r="K221" t="n">
-        <v>59.99999999999957</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L221" t="n">
         <v>6.273999999999985</v>
@@ -11670,7 +11610,7 @@
         <v>0.7099999999999973</v>
       </c>
       <c r="K222" t="n">
-        <v>62.96296296296262</v>
+        <v>64.70588235294106</v>
       </c>
       <c r="L222" t="n">
         <v>6.285999999999985</v>
@@ -11727,7 +11667,7 @@
         <v>0.7399999999999975</v>
       </c>
       <c r="K223" t="n">
-        <v>66.66666666666637</v>
+        <v>69.9999999999999</v>
       </c>
       <c r="L223" t="n">
         <v>6.299999999999986</v>
@@ -11784,7 +11724,7 @@
         <v>0.7499999999999982</v>
       </c>
       <c r="K224" t="n">
-        <v>61.29032258064455</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L224" t="n">
         <v>6.312999999999986</v>
@@ -11841,7 +11781,7 @@
         <v>0.759999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>49.99999999999952</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L225" t="n">
         <v>6.323999999999986</v>
@@ -11892,7 +11832,7 @@
         <v>0.7699999999999978</v>
       </c>
       <c r="K226" t="n">
-        <v>62.96296296296262</v>
+        <v>37.49999999999952</v>
       </c>
       <c r="L226" t="n">
         <v>6.331999999999985</v>
@@ -11943,7 +11883,7 @@
         <v>0.7799999999999985</v>
       </c>
       <c r="K227" t="n">
-        <v>62.96296296296262</v>
+        <v>28.5714285714283</v>
       </c>
       <c r="L227" t="n">
         <v>6.338999999999985</v>
@@ -11994,7 +11934,7 @@
         <v>0.7899999999999983</v>
       </c>
       <c r="K228" t="n">
-        <v>64.28571428571392</v>
+        <v>28.5714285714283</v>
       </c>
       <c r="L228" t="n">
         <v>6.343999999999985</v>
@@ -12045,7 +11985,7 @@
         <v>0.8299999999999983</v>
       </c>
       <c r="K229" t="n">
-        <v>68.74999999999967</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L229" t="n">
         <v>6.351999999999985</v>
@@ -12096,7 +12036,7 @@
         <v>0.8399999999999981</v>
       </c>
       <c r="K230" t="n">
-        <v>62.49999999999982</v>
+        <v>60</v>
       </c>
       <c r="L230" t="n">
         <v>6.357999999999985</v>
@@ -12147,7 +12087,7 @@
         <v>0.8499999999999979</v>
       </c>
       <c r="K231" t="n">
-        <v>62.49999999999982</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L231" t="n">
         <v>6.367999999999985</v>
@@ -12198,7 +12138,7 @@
         <v>0.8499999999999979</v>
       </c>
       <c r="K232" t="n">
-        <v>62.49999999999982</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L232" t="n">
         <v>6.375999999999985</v>
@@ -12249,7 +12189,7 @@
         <v>0.8699999999999974</v>
       </c>
       <c r="K233" t="n">
-        <v>63.63636363636343</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L233" t="n">
         <v>6.382999999999986</v>
@@ -12300,7 +12240,7 @@
         <v>0.8699999999999974</v>
       </c>
       <c r="K234" t="n">
-        <v>63.63636363636343</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L234" t="n">
         <v>6.390999999999985</v>
@@ -12351,7 +12291,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K235" t="n">
-        <v>63.63636363636343</v>
+        <v>81.81818181818225</v>
       </c>
       <c r="L235" t="n">
         <v>6.400999999999985</v>
@@ -12402,7 +12342,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K236" t="n">
-        <v>58.62068965517233</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L236" t="n">
         <v>6.409999999999985</v>
@@ -12453,7 +12393,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K237" t="n">
-        <v>55.55555555555542</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L237" t="n">
         <v>6.417999999999985</v>
@@ -12504,7 +12444,7 @@
         <v>0.8799999999999981</v>
       </c>
       <c r="K238" t="n">
-        <v>49.99999999999982</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L238" t="n">
         <v>6.424999999999985</v>
@@ -12555,7 +12495,7 @@
         <v>0.8899999999999979</v>
       </c>
       <c r="K239" t="n">
-        <v>49.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>6.428999999999985</v>
@@ -12606,7 +12546,7 @@
         <v>0.8999999999999977</v>
       </c>
       <c r="K240" t="n">
-        <v>49.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>6.434999999999984</v>
@@ -12657,7 +12597,7 @@
         <v>0.8999999999999977</v>
       </c>
       <c r="K241" t="n">
-        <v>71.4285714285713</v>
+        <v>100</v>
       </c>
       <c r="L241" t="n">
         <v>6.439999999999984</v>
@@ -12708,7 +12648,7 @@
         <v>0.8999999999999977</v>
       </c>
       <c r="K242" t="n">
-        <v>68.42105263157875</v>
+        <v>100</v>
       </c>
       <c r="L242" t="n">
         <v>6.444999999999983</v>
@@ -12759,7 +12699,7 @@
         <v>0.9099999999999975</v>
       </c>
       <c r="K243" t="n">
-        <v>52.94117647058817</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L243" t="n">
         <v>6.446999999999983</v>
@@ -12810,7 +12750,7 @@
         <v>0.9099999999999975</v>
       </c>
       <c r="K244" t="n">
-        <v>62.50000000000063</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>6.448999999999984</v>
@@ -12861,7 +12801,7 @@
         <v>0.9099999999999975</v>
       </c>
       <c r="K245" t="n">
-        <v>73.33333333333381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>6.449999999999984</v>
@@ -12912,7 +12852,7 @@
         <v>0.9599999999999973</v>
       </c>
       <c r="K246" t="n">
-        <v>26.31578947368465</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L246" t="n">
         <v>6.445999999999986</v>
@@ -12963,7 +12903,7 @@
         <v>0.9599999999999973</v>
       </c>
       <c r="K247" t="n">
-        <v>22.22222222222239</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L247" t="n">
         <v>6.441999999999986</v>
@@ -13014,7 +12954,7 @@
         <v>0.9899999999999975</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L248" t="n">
         <v>6.434999999999986</v>
@@ -13065,7 +13005,7 @@
         <v>1.049999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>-45.45454545454574</v>
+        <v>-100</v>
       </c>
       <c r="L249" t="n">
         <v>6.420999999999987</v>
@@ -13116,7 +13056,7 @@
         <v>1.049999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>-42.85714285714322</v>
+        <v>-100</v>
       </c>
       <c r="L250" t="n">
         <v>6.405999999999987</v>
@@ -13167,7 +13107,7 @@
         <v>1.099999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>-19.99999999999986</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L251" t="n">
         <v>6.395999999999987</v>
@@ -13218,7 +13158,7 @@
         <v>1.099999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>-19.99999999999986</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L252" t="n">
         <v>6.385999999999988</v>
@@ -13269,7 +13209,7 @@
         <v>1.109999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>-33.33333333333309</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L253" t="n">
         <v>6.375999999999988</v>
@@ -13320,7 +13260,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>-42.85714285714258</v>
+        <v>-58.33333333333308</v>
       </c>
       <c r="L254" t="n">
         <v>6.361999999999988</v>
@@ -13371,7 +13311,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>-48.14814814814819</v>
+        <v>-47.36842105263143</v>
       </c>
       <c r="L255" t="n">
         <v>6.347999999999987</v>
@@ -13422,7 +13362,7 @@
         <v>1.17</v>
       </c>
       <c r="K256" t="n">
-        <v>-37.9310344827585</v>
+        <v>-33.33333333333305</v>
       </c>
       <c r="L256" t="n">
         <v>6.340999999999988</v>
@@ -13473,7 +13413,7 @@
         <v>1.18</v>
       </c>
       <c r="K257" t="n">
-        <v>-33.33333333333333</v>
+        <v>-15.78947368421048</v>
       </c>
       <c r="L257" t="n">
         <v>6.334999999999988</v>
@@ -13524,7 +13464,7 @@
         <v>1.19</v>
       </c>
       <c r="K258" t="n">
-        <v>-29.03225806451624</v>
+        <v>28.5714285714283</v>
       </c>
       <c r="L258" t="n">
         <v>6.332999999999988</v>
@@ -13575,7 +13515,7 @@
         <v>1.19</v>
       </c>
       <c r="K259" t="n">
-        <v>-33.33333333333333</v>
+        <v>28.5714285714283</v>
       </c>
       <c r="L259" t="n">
         <v>6.336999999999987</v>
@@ -13626,7 +13566,7 @@
         <v>1.2</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>6.341999999999987</v>
@@ -13677,7 +13617,7 @@
         <v>1.2</v>
       </c>
       <c r="K261" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>6.341999999999987</v>
@@ -13728,7 +13668,7 @@
         <v>1.2</v>
       </c>
       <c r="K262" t="n">
-        <v>-33.33333333333294</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L262" t="n">
         <v>6.341999999999987</v>
@@ -13779,7 +13719,7 @@
         <v>1.2</v>
       </c>
       <c r="K263" t="n">
-        <v>-31.03448275862035</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>6.342999999999988</v>
@@ -13830,7 +13770,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333314</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L264" t="n">
         <v>6.346999999999987</v>
@@ -13881,7 +13821,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-35.48387096774167</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L265" t="n">
         <v>6.349999999999987</v>
@@ -13932,7 +13872,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-23.07692307692297</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>6.350999999999988</v>
@@ -13983,7 +13923,7 @@
         <v>1.23</v>
       </c>
       <c r="K267" t="n">
-        <v>-25.92592592592573</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L267" t="n">
         <v>6.349999999999987</v>
@@ -14034,7 +13974,7 @@
         <v>1.24</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.99999999999997</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L268" t="n">
         <v>6.348999999999988</v>
@@ -14085,7 +14025,7 @@
         <v>1.24</v>
       </c>
       <c r="K269" t="n">
-        <v>15.78947368421048</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L269" t="n">
         <v>6.347999999999987</v>
@@ -14136,7 +14076,7 @@
         <v>1.24</v>
       </c>
       <c r="K270" t="n">
-        <v>15.78947368421048</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L270" t="n">
         <v>6.345999999999987</v>
@@ -14187,7 +14127,7 @@
         <v>1.24</v>
       </c>
       <c r="K271" t="n">
-        <v>-14.28571428571447</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L271" t="n">
         <v>6.343999999999987</v>
@@ -14238,7 +14178,7 @@
         <v>1.25</v>
       </c>
       <c r="K272" t="n">
-        <v>-20</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L272" t="n">
         <v>6.340999999999987</v>
@@ -14340,7 +14280,7 @@
         <v>1.3</v>
       </c>
       <c r="K274" t="n">
-        <v>46.66666666666674</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L274" t="n">
         <v>6.342999999999986</v>
@@ -14391,7 +14331,7 @@
         <v>1.3</v>
       </c>
       <c r="K275" t="n">
-        <v>46.66666666666674</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L275" t="n">
         <v>6.346999999999985</v>
@@ -14442,7 +14382,7 @@
         <v>1.3</v>
       </c>
       <c r="K276" t="n">
-        <v>38.46153846153836</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L276" t="n">
         <v>6.350999999999985</v>
@@ -14493,7 +14433,7 @@
         <v>1.3</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L277" t="n">
         <v>6.355999999999985</v>
@@ -14544,7 +14484,7 @@
         <v>1.3</v>
       </c>
       <c r="K278" t="n">
-        <v>27.27272727272742</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L278" t="n">
         <v>6.359999999999983</v>
@@ -14595,7 +14535,7 @@
         <v>1.31</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L279" t="n">
         <v>6.364999999999983</v>
@@ -14646,7 +14586,7 @@
         <v>1.31</v>
       </c>
       <c r="K280" t="n">
-        <v>27.27272727272683</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L280" t="n">
         <v>6.369999999999983</v>
@@ -14697,7 +14637,7 @@
         <v>1.31</v>
       </c>
       <c r="K281" t="n">
-        <v>27.27272727272683</v>
+        <v>100</v>
       </c>
       <c r="L281" t="n">
         <v>6.374999999999983</v>
@@ -14748,7 +14688,7 @@
         <v>1.31</v>
       </c>
       <c r="K282" t="n">
-        <v>27.27272727272683</v>
+        <v>100</v>
       </c>
       <c r="L282" t="n">
         <v>6.380999999999983</v>
@@ -14799,7 +14739,7 @@
         <v>1.319999999999999</v>
       </c>
       <c r="K283" t="n">
-        <v>16.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>6.383999999999983</v>
@@ -14850,7 +14790,7 @@
         <v>1.329999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>16.66666666666729</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>6.382999999999982</v>
@@ -14901,7 +14841,7 @@
         <v>1.329999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>27.27272727272786</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>6.381999999999982</v>
@@ -14952,7 +14892,7 @@
         <v>1.339999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>33.33333333333383</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>6.381999999999982</v>
@@ -15003,7 +14943,7 @@
         <v>1.349999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>50.00000000000037</v>
+        <v>20</v>
       </c>
       <c r="L287" t="n">
         <v>6.38299999999998</v>
@@ -15054,7 +14994,7 @@
         <v>1.359999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>33.33333333333383</v>
+        <v>-20</v>
       </c>
       <c r="L288" t="n">
         <v>6.38299999999998</v>
@@ -15105,7 +15045,7 @@
         <v>1.359999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>33.33333333333383</v>
+        <v>-20</v>
       </c>
       <c r="L289" t="n">
         <v>6.381999999999981</v>
@@ -15156,7 +15096,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>6.666666666666588</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L290" t="n">
         <v>6.377999999999981</v>
@@ -15207,7 +15147,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>6.666666666666588</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L291" t="n">
         <v>6.373999999999979</v>
@@ -15258,7 +15198,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>14.28571428571411</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L292" t="n">
         <v>6.369999999999979</v>
@@ -15309,7 +15249,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L293" t="n">
         <v>6.366999999999978</v>
@@ -15360,7 +15300,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-33.33333333333399</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L294" t="n">
         <v>6.364999999999979</v>
@@ -15411,7 +15351,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>-33.33333333333399</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L295" t="n">
         <v>6.362999999999979</v>
@@ -15462,7 +15402,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>-33.33333333333399</v>
+        <v>-100</v>
       </c>
       <c r="L296" t="n">
         <v>6.359999999999979</v>
@@ -15513,7 +15453,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-33.33333333333399</v>
+        <v>-100</v>
       </c>
       <c r="L297" t="n">
         <v>6.355999999999979</v>
@@ -15564,7 +15504,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>-40.00000000000053</v>
+        <v>-100</v>
       </c>
       <c r="L298" t="n">
         <v>6.351999999999979</v>
@@ -15615,7 +15555,7 @@
         <v>1.419999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>-63.63636363636394</v>
+        <v>-100</v>
       </c>
       <c r="L299" t="n">
         <v>6.345999999999979</v>
@@ -15666,7 +15606,7 @@
         <v>1.439999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>-69.23076923076965</v>
+        <v>-100</v>
       </c>
       <c r="L300" t="n">
         <v>6.340999999999979</v>
@@ -15717,7 +15657,7 @@
         <v>1.489999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>-77.77777777777811</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>6.33099999999998</v>
@@ -15768,7 +15708,7 @@
         <v>1.489999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>-77.77777777777811</v>
+        <v>-100</v>
       </c>
       <c r="L302" t="n">
         <v>6.32099999999998</v>
@@ -15819,7 +15759,7 @@
         <v>1.499999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>-66.66666666666717</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L303" t="n">
         <v>6.31199999999998</v>
@@ -15870,7 +15810,7 @@
         <v>1.519999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>-47.36842105263162</v>
+        <v>-53.84615384615342</v>
       </c>
       <c r="L304" t="n">
         <v>6.304999999999979</v>
@@ -15925,7 +15865,7 @@
         <v>1.519999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-47.36842105263162</v>
+        <v>-53.84615384615342</v>
       </c>
       <c r="L305" t="n">
         <v>6.297999999999979</v>
@@ -15982,7 +15922,7 @@
         <v>1.539999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>-40.00000000000018</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L306" t="n">
         <v>6.292999999999979</v>
@@ -16039,7 +15979,7 @@
         <v>1.549999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>6.286999999999979</v>
@@ -16096,7 +16036,7 @@
         <v>1.549999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>-47.36842105263162</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L308" t="n">
         <v>6.281999999999978</v>
@@ -16153,7 +16093,7 @@
         <v>1.559999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>-40.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>6.279999999999978</v>
@@ -16210,7 +16150,7 @@
         <v>1.559999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>-29.41176470588242</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L310" t="n">
         <v>6.279999999999978</v>
@@ -16267,7 +16207,7 @@
         <v>1.559999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>-29.41176470588242</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L311" t="n">
         <v>6.284999999999978</v>
@@ -16324,7 +16264,7 @@
         <v>1.579999999999997</v>
       </c>
       <c r="K312" t="n">
-        <v>-36.84210526315785</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L312" t="n">
         <v>6.287999999999978</v>
@@ -16381,7 +16321,7 @@
         <v>1.579999999999997</v>
       </c>
       <c r="K313" t="n">
-        <v>-36.84210526315785</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>6.289999999999979</v>
@@ -16438,7 +16378,7 @@
         <v>1.589999999999997</v>
       </c>
       <c r="K314" t="n">
-        <v>-30.00000000000004</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L314" t="n">
         <v>6.290999999999978</v>
@@ -16540,7 +16480,7 @@
         <v>1.599999999999997</v>
       </c>
       <c r="K316" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L316" t="n">
         <v>6.288999999999978</v>
@@ -16591,7 +16531,7 @@
         <v>1.599999999999997</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L317" t="n">
         <v>6.287999999999979</v>
@@ -16642,7 +16582,7 @@
         <v>1.649999999999997</v>
       </c>
       <c r="K318" t="n">
-        <v>-44.00000000000009</v>
+        <v>-77.777777777778</v>
       </c>
       <c r="L318" t="n">
         <v>6.281999999999979</v>
@@ -16693,7 +16633,7 @@
         <v>1.659999999999997</v>
       </c>
       <c r="K319" t="n">
-        <v>-33.33333333333358</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L319" t="n">
         <v>6.275999999999979</v>
@@ -16744,7 +16684,7 @@
         <v>1.679999999999997</v>
       </c>
       <c r="K320" t="n">
-        <v>-33.33333333333358</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L320" t="n">
         <v>6.267999999999979</v>
@@ -16795,7 +16735,7 @@
         <v>1.679999999999997</v>
       </c>
       <c r="K321" t="n">
-        <v>-15.78947368421077</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L321" t="n">
         <v>6.259999999999979</v>
@@ -16846,7 +16786,7 @@
         <v>1.689999999999998</v>
       </c>
       <c r="K322" t="n">
-        <v>-9.999999999999822</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L322" t="n">
         <v>6.254999999999979</v>
@@ -16897,7 +16837,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>-9.999999999999822</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L323" t="n">
         <v>6.250999999999979</v>
@@ -16948,7 +16888,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>-22.22222222222239</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L324" t="n">
         <v>6.245999999999979</v>
@@ -16999,7 +16939,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>-22.22222222222239</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L325" t="n">
         <v>6.241999999999979</v>
@@ -17050,7 +16990,7 @@
         <v>1.699999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>-37.49999999999993</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L326" t="n">
         <v>6.237999999999978</v>
@@ -17101,7 +17041,7 @@
         <v>1.719999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>-41.17647058823548</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L327" t="n">
         <v>6.231999999999978</v>
@@ -17152,7 +17092,7 @@
         <v>1.749999999999997</v>
       </c>
       <c r="K328" t="n">
-        <v>-50</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L328" t="n">
         <v>6.227999999999978</v>
@@ -17203,7 +17143,7 @@
         <v>1.799999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>-66.66666666666666</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L329" t="n">
         <v>6.217999999999977</v>
@@ -17254,7 +17194,7 @@
         <v>1.829999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>-48.14814814814803</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L330" t="n">
         <v>6.212999999999977</v>
@@ -17305,7 +17245,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-33.33333333333314</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L331" t="n">
         <v>6.210999999999977</v>
@@ -17356,7 +17296,7 @@
         <v>1.869999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>-24.13793103448278</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L332" t="n">
         <v>6.208999999999977</v>
@@ -17407,7 +17347,7 @@
         <v>1.869999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>-24.13793103448278</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L333" t="n">
         <v>6.205999999999976</v>
@@ -17458,7 +17398,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-35.48387096774188</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L334" t="n">
         <v>6.199999999999975</v>
@@ -17509,7 +17449,7 @@
         <v>1.959999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>-44.44444444444434</v>
+        <v>-46.15384615384608</v>
       </c>
       <c r="L335" t="n">
         <v>6.187999999999975</v>
@@ -17560,7 +17500,7 @@
         <v>1.999999999999998</v>
       </c>
       <c r="K336" t="n">
-        <v>-29.99999999999993</v>
+        <v>-21.42857142857127</v>
       </c>
       <c r="L336" t="n">
         <v>6.179999999999975</v>
@@ -17611,7 +17551,7 @@
         <v>2.029999999999998</v>
       </c>
       <c r="K337" t="n">
-        <v>-34.88372093023252</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L337" t="n">
         <v>6.170999999999975</v>
@@ -17662,7 +17602,7 @@
         <v>2.029999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-26.31578947368424</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L338" t="n">
         <v>6.164999999999975</v>
@@ -17713,7 +17653,7 @@
         <v>2.039999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>-26.31578947368424</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L339" t="n">
         <v>6.164999999999975</v>
@@ -17764,7 +17704,7 @@
         <v>2.049999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>-18.91891891891866</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L340" t="n">
         <v>6.162999999999975</v>
@@ -17815,7 +17755,7 @@
         <v>2.059999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.78947368421035</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L341" t="n">
         <v>6.158999999999975</v>
@@ -17866,7 +17806,7 @@
         <v>2.059999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-18.91891891891894</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L342" t="n">
         <v>6.153999999999974</v>
@@ -17917,7 +17857,7 @@
         <v>2.079999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-26.31578947368424</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L343" t="n">
         <v>6.146999999999974</v>
@@ -17968,7 +17908,7 @@
         <v>2.079999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>-26.31578947368424</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L344" t="n">
         <v>6.142999999999973</v>
@@ -18019,7 +17959,7 @@
         <v>2.089999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>-28.20512820512818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>6.143999999999973</v>
@@ -18070,7 +18010,7 @@
         <v>2.089999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>-28.20512820512818</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>6.140999999999974</v>
@@ -18121,7 +18061,7 @@
         <v>2.099999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>-21.05263157894735</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L347" t="n">
         <v>6.141999999999974</v>
@@ -18172,7 +18112,7 @@
         <v>2.109999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-11.11111111111106</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L348" t="n">
         <v>6.143999999999973</v>
@@ -18223,7 +18163,7 @@
         <v>2.129999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>9.09090909090914</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L349" t="n">
         <v>6.146999999999973</v>
@@ -18274,7 +18214,7 @@
         <v>2.139999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>-3.22580645161283</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>6.147999999999973</v>
@@ -18325,7 +18265,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>-17.24137931034477</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L351" t="n">
         <v>6.146999999999973</v>
@@ -18376,7 +18316,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-21.42857142857127</v>
+        <v>14.28571428571537</v>
       </c>
       <c r="L352" t="n">
         <v>6.145999999999974</v>
@@ -18427,7 +18367,7 @@
         <v>2.159999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-17.24137931034477</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L353" t="n">
         <v>6.147999999999973</v>
@@ -18478,7 +18418,7 @@
         <v>2.159999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-7.692307692307534</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L354" t="n">
         <v>6.149999999999973</v>
@@ -18529,7 +18469,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>30.43478260869572</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L355" t="n">
         <v>6.155999999999972</v>
@@ -18580,7 +18520,7 @@
         <v>2.199999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>20</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L356" t="n">
         <v>6.162999999999972</v>
@@ -18631,7 +18571,7 @@
         <v>2.209999999999998</v>
       </c>
       <c r="K357" t="n">
-        <v>44.44444444444456</v>
+        <v>60.00000000000036</v>
       </c>
       <c r="L357" t="n">
         <v>6.169999999999972</v>
@@ -18682,7 +18622,7 @@
         <v>2.239999999999998</v>
       </c>
       <c r="K358" t="n">
-        <v>23.80952380952373</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L358" t="n">
         <v>6.172999999999972</v>
@@ -18733,7 +18673,7 @@
         <v>2.239999999999998</v>
       </c>
       <c r="K359" t="n">
-        <v>20</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L359" t="n">
         <v>6.173999999999971</v>
@@ -18784,7 +18724,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>-4.347826086956824</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L360" t="n">
         <v>6.171999999999971</v>
@@ -18835,7 +18775,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.09090909090931</v>
+        <v>-7.692307692308217</v>
       </c>
       <c r="L361" t="n">
         <v>6.170999999999972</v>
@@ -18886,7 +18826,7 @@
         <v>2.289999999999998</v>
       </c>
       <c r="K362" t="n">
-        <v>-13.0434782608697</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L362" t="n">
         <v>6.168999999999972</v>
@@ -18937,7 +18877,7 @@
         <v>2.289999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>-4.761904761904681</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L363" t="n">
         <v>6.165999999999973</v>
@@ -18988,7 +18928,7 @@
         <v>2.299999999999998</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-45.45454545454633</v>
       </c>
       <c r="L364" t="n">
         <v>6.163999999999973</v>
@@ -19039,7 +18979,7 @@
         <v>2.309999999999998</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L365" t="n">
         <v>6.157999999999973</v>
@@ -19090,7 +19030,7 @@
         <v>2.309999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L366" t="n">
         <v>6.150999999999972</v>
@@ -19141,7 +19081,7 @@
         <v>2.319999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L367" t="n">
         <v>6.143999999999972</v>
@@ -19192,7 +19132,7 @@
         <v>2.319999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>-4.761904761905124</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L368" t="n">
         <v>6.139999999999971</v>
@@ -19243,7 +19183,7 @@
         <v>2.329999999999997</v>
       </c>
       <c r="K369" t="n">
-        <v>-20.00000000000018</v>
+        <v>-20</v>
       </c>
       <c r="L369" t="n">
         <v>6.134999999999971</v>
@@ -19294,7 +19234,7 @@
         <v>2.339999999999997</v>
       </c>
       <c r="K370" t="n">
-        <v>-10.00000000000031</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>6.134999999999971</v>
@@ -19345,7 +19285,7 @@
         <v>2.339999999999997</v>
       </c>
       <c r="K371" t="n">
-        <v>-5.263157894737236</v>
+        <v>20</v>
       </c>
       <c r="L371" t="n">
         <v>6.134999999999971</v>
@@ -19396,7 +19336,7 @@
         <v>2.339999999999997</v>
       </c>
       <c r="K372" t="n">
-        <v>-5.263157894737236</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>6.135999999999971</v>
@@ -19447,7 +19387,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>-5.263157894736744</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L373" t="n">
         <v>6.137999999999971</v>
@@ -19498,7 +19438,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>-5.263157894736744</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L374" t="n">
         <v>6.13899999999997</v>
@@ -19549,7 +19489,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>-25.00000000000014</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L375" t="n">
         <v>6.140999999999971</v>
@@ -19600,7 +19540,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K376" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L376" t="n">
         <v>6.14299999999997</v>
@@ -19651,7 +19591,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>-42.85714285714268</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L377" t="n">
         <v>6.14399999999997</v>
@@ -19702,7 +19642,7 @@
         <v>2.369999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>-38.46153846153836</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>6.14299999999997</v>
@@ -19753,7 +19693,7 @@
         <v>2.379999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>-28.57142857142867</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>6.143999999999969</v>
@@ -19804,7 +19744,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>9.090909090909678</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L380" t="n">
         <v>6.144999999999969</v>
@@ -19906,7 +19846,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>9.090909090908797</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L382" t="n">
         <v>6.144999999999969</v>
@@ -19957,7 +19897,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>9.090909090908797</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L383" t="n">
         <v>6.143999999999969</v>
@@ -20008,7 +19948,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L384" t="n">
         <v>6.142999999999969</v>
@@ -20059,7 +19999,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K385" t="n">
-        <v>11.11111111111067</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L385" t="n">
         <v>6.141999999999968</v>
@@ -20110,7 +20050,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K386" t="n">
-        <v>11.11111111111067</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L386" t="n">
         <v>6.140999999999968</v>
@@ -20161,7 +20101,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L387" t="n">
         <v>6.139999999999967</v>
@@ -20212,7 +20152,7 @@
         <v>2.41</v>
       </c>
       <c r="K388" t="n">
-        <v>11.11111111111155</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>6.141999999999967</v>
@@ -20263,7 +20203,7 @@
         <v>2.430000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L389" t="n">
         <v>6.140999999999967</v>
@@ -20314,7 +20254,7 @@
         <v>2.430000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>-11.11111111111045</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L390" t="n">
         <v>6.138999999999966</v>
@@ -20467,7 +20407,7 @@
         <v>2.44</v>
       </c>
       <c r="K393" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>6.138999999999966</v>
@@ -20518,7 +20458,7 @@
         <v>2.44</v>
       </c>
       <c r="K394" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>6.138999999999966</v>
@@ -20569,7 +20509,7 @@
         <v>2.44</v>
       </c>
       <c r="K395" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>6.138999999999966</v>
@@ -20620,7 +20560,7 @@
         <v>2.44</v>
       </c>
       <c r="K396" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>6.138999999999966</v>
@@ -20671,7 +20611,7 @@
         <v>2.44</v>
       </c>
       <c r="K397" t="n">
-        <v>-11.11111111111155</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L397" t="n">
         <v>6.138999999999966</v>
@@ -20773,7 +20713,7 @@
         <v>2.45</v>
       </c>
       <c r="K399" t="n">
-        <v>-14.28571428571356</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>6.136999999999966</v>
@@ -20824,7 +20764,7 @@
         <v>2.47</v>
       </c>
       <c r="K400" t="n">
-        <v>-49.99999999999945</v>
+        <v>-100</v>
       </c>
       <c r="L400" t="n">
         <v>6.134999999999966</v>
@@ -20875,7 +20815,7 @@
         <v>2.48</v>
       </c>
       <c r="K401" t="n">
-        <v>-49.99999999999945</v>
+        <v>-100</v>
       </c>
       <c r="L401" t="n">
         <v>6.130999999999966</v>
@@ -20926,7 +20866,7 @@
         <v>2.490000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-33.33333333333201</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L402" t="n">
         <v>6.127999999999966</v>
@@ -20977,7 +20917,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.99999999999929</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L403" t="n">
         <v>6.125999999999967</v>
@@ -21028,7 +20968,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-19.99999999999929</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L404" t="n">
         <v>6.123999999999967</v>
@@ -21079,7 +21019,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-19.99999999999929</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L405" t="n">
         <v>6.121999999999967</v>
@@ -21130,7 +21070,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-19.99999999999929</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L406" t="n">
         <v>6.119999999999967</v>
@@ -21181,7 +21121,7 @@
         <v>2.520000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-33.33333333333284</v>
+        <v>-42.85714285714249</v>
       </c>
       <c r="L407" t="n">
         <v>6.115999999999967</v>
@@ -21232,7 +21172,7 @@
         <v>2.530000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>-33.33333333333284</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L408" t="n">
         <v>6.113999999999967</v>
@@ -21283,7 +21223,7 @@
         <v>2.530000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>-19.99999999999929</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>6.111999999999967</v>
@@ -21334,7 +21274,7 @@
         <v>2.540000000000003</v>
       </c>
       <c r="K410" t="n">
-        <v>-27.27272727272697</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>6.110999999999967</v>
@@ -21391,7 +21331,7 @@
         <v>2.550000000000003</v>
       </c>
       <c r="K411" t="n">
-        <v>-27.27272727272595</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>6.111999999999967</v>
@@ -21448,7 +21388,7 @@
         <v>2.550000000000003</v>
       </c>
       <c r="K412" t="n">
-        <v>-27.27272727272595</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L412" t="n">
         <v>6.111999999999968</v>
@@ -21507,7 +21447,7 @@
         <v>2.560000000000003</v>
       </c>
       <c r="K413" t="n">
-        <v>-16.66666666666593</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>6.111999999999968</v>
@@ -21568,7 +21508,7 @@
         <v>2.560000000000003</v>
       </c>
       <c r="K414" t="n">
-        <v>-16.66666666666593</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>6.111999999999968</v>
@@ -21629,7 +21569,7 @@
         <v>2.570000000000003</v>
       </c>
       <c r="K415" t="n">
-        <v>-7.692307692307376</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L415" t="n">
         <v>6.112999999999969</v>
@@ -21690,7 +21630,7 @@
         <v>2.580000000000003</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L416" t="n">
         <v>6.114999999999968</v>
@@ -21751,7 +21691,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K417" t="n">
-        <v>12.50000000000007</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L417" t="n">
         <v>6.120999999999968</v>
@@ -21812,7 +21752,7 @@
         <v>2.620000000000004</v>
       </c>
       <c r="K418" t="n">
-        <v>5.882352941176225</v>
+        <v>33.33333333333201</v>
       </c>
       <c r="L418" t="n">
         <v>6.123999999999969</v>
@@ -21873,7 +21813,7 @@
         <v>2.620000000000004</v>
       </c>
       <c r="K419" t="n">
-        <v>5.882352941176225</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L419" t="n">
         <v>6.126999999999969</v>
@@ -21934,7 +21874,7 @@
         <v>2.620000000000004</v>
       </c>
       <c r="K420" t="n">
-        <v>19.99999999999905</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L420" t="n">
         <v>6.130999999999968</v>
@@ -21995,7 +21935,7 @@
         <v>2.630000000000003</v>
       </c>
       <c r="K421" t="n">
-        <v>19.99999999999976</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L421" t="n">
         <v>6.132999999999969</v>
@@ -22056,7 +21996,7 @@
         <v>2.640000000000003</v>
       </c>
       <c r="K422" t="n">
-        <v>19.99999999999929</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L422" t="n">
         <v>6.135999999999969</v>
@@ -22113,7 +22053,7 @@
         <v>2.640000000000003</v>
       </c>
       <c r="K423" t="n">
-        <v>14.28571428571374</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L423" t="n">
         <v>6.137999999999969</v>
@@ -22170,7 +22110,7 @@
         <v>2.640000000000003</v>
       </c>
       <c r="K424" t="n">
-        <v>14.28571428571374</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L424" t="n">
         <v>6.139999999999969</v>
@@ -22227,7 +22167,7 @@
         <v>2.650000000000003</v>
       </c>
       <c r="K425" t="n">
-        <v>6.666666666666429</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L425" t="n">
         <v>6.139999999999969</v>
@@ -22284,7 +22224,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K426" t="n">
-        <v>12.49999999999958</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L426" t="n">
         <v>6.139999999999968</v>
@@ -22341,7 +22281,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K427" t="n">
-        <v>28.5714285714283</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>6.137999999999968</v>
@@ -22398,7 +22338,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K428" t="n">
-        <v>23.07692307692244</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>6.137999999999968</v>
@@ -22455,7 +22395,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K429" t="n">
-        <v>23.07692307692244</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>6.137999999999968</v>
@@ -22557,7 +22497,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K431" t="n">
-        <v>27.27272727272683</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>6.138999999999968</v>
@@ -22608,7 +22548,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K432" t="n">
-        <v>27.27272727272683</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>6.138999999999967</v>
@@ -22659,7 +22599,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K433" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>6.138999999999967</v>
@@ -22710,7 +22650,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K434" t="n">
-        <v>19.99999999999964</v>
+        <v>100</v>
       </c>
       <c r="L434" t="n">
         <v>6.138999999999967</v>
@@ -22760,9 +22700,7 @@
       <c r="J435" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K435" t="n">
-        <v>11.11111111111089</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -22811,9 +22749,7 @@
       <c r="J436" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K436" t="n">
-        <v>0</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -22862,9 +22798,7 @@
       <c r="J437" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K437" t="n">
-        <v>-33.33333333333432</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -22913,9 +22847,7 @@
       <c r="J438" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K438" t="n">
-        <v>0</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -22964,9 +22896,7 @@
       <c r="J439" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K439" t="n">
-        <v>0</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23015,9 +22945,7 @@
       <c r="J440" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K440" t="n">
-        <v>0</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23066,9 +22994,7 @@
       <c r="J441" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K441" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23117,9 +23043,7 @@
       <c r="J442" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K442" t="n">
-        <v>0</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23168,9 +23092,7 @@
       <c r="J443" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K443" t="n">
-        <v>0</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23219,9 +23141,7 @@
       <c r="J444" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K444" t="n">
-        <v>0</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23270,9 +23190,7 @@
       <c r="J445" t="n">
         <v>2.660000000000003</v>
       </c>
-      <c r="K445" t="n">
-        <v>100</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23830,7 +23748,7 @@
         <v>2.680000000000004</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L456" t="n">
         <v>6.140999999999967</v>
@@ -23880,9 +23798,7 @@
       <c r="J457" t="n">
         <v>2.680000000000004</v>
       </c>
-      <c r="K457" t="n">
-        <v>0</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23931,9 +23847,7 @@
       <c r="J458" t="n">
         <v>2.680000000000004</v>
       </c>
-      <c r="K458" t="n">
-        <v>0</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -23982,9 +23896,7 @@
       <c r="J459" t="n">
         <v>2.680000000000004</v>
       </c>
-      <c r="K459" t="n">
-        <v>0</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>6.139999999999967</v>
       </c>
@@ -24034,7 +23946,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K460" t="n">
-        <v>-49.99999999999778</v>
+        <v>-100</v>
       </c>
       <c r="L460" t="n">
         <v>6.137999999999967</v>
@@ -24085,7 +23997,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K461" t="n">
-        <v>-49.99999999999778</v>
+        <v>-100</v>
       </c>
       <c r="L461" t="n">
         <v>6.135999999999967</v>
@@ -24136,7 +24048,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K462" t="n">
-        <v>-49.99999999999778</v>
+        <v>-100</v>
       </c>
       <c r="L462" t="n">
         <v>6.133999999999967</v>
@@ -24187,7 +24099,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K463" t="n">
-        <v>-49.99999999999778</v>
+        <v>-100</v>
       </c>
       <c r="L463" t="n">
         <v>6.131999999999968</v>
@@ -24238,7 +24150,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K464" t="n">
-        <v>-49.99999999999778</v>
+        <v>-100</v>
       </c>
       <c r="L464" t="n">
         <v>6.129999999999969</v>
@@ -24289,7 +24201,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K465" t="n">
-        <v>-59.99999999999787</v>
+        <v>-100</v>
       </c>
       <c r="L465" t="n">
         <v>6.126999999999969</v>
@@ -24340,7 +24252,7 @@
         <v>2.720000000000004</v>
       </c>
       <c r="K466" t="n">
-        <v>-66.66666666666518</v>
+        <v>-100</v>
       </c>
       <c r="L466" t="n">
         <v>6.122999999999967</v>
@@ -24391,7 +24303,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K467" t="n">
-        <v>-66.66666666666518</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L467" t="n">
         <v>6.119999999999967</v>
@@ -24493,7 +24405,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K469" t="n">
-        <v>-59.99999999999787</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L469" t="n">
         <v>6.113999999999967</v>
@@ -24544,7 +24456,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K470" t="n">
-        <v>-59.99999999999787</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L470" t="n">
         <v>6.112999999999968</v>
@@ -24595,7 +24507,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K471" t="n">
-        <v>-59.99999999999787</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L471" t="n">
         <v>6.111999999999968</v>
@@ -24646,7 +24558,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K472" t="n">
-        <v>-59.99999999999787</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L472" t="n">
         <v>6.11099999999997</v>
@@ -24697,7 +24609,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K473" t="n">
-        <v>-59.99999999999787</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L473" t="n">
         <v>6.10999999999997</v>
@@ -24748,7 +24660,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K474" t="n">
-        <v>-59.99999999999787</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>6.108999999999972</v>
@@ -24799,7 +24711,7 @@
         <v>2.730000000000005</v>
       </c>
       <c r="K475" t="n">
-        <v>-59.99999999999787</v>
+        <v>100</v>
       </c>
       <c r="L475" t="n">
         <v>6.108999999999972</v>
@@ -24849,9 +24761,7 @@
       <c r="J476" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K476" t="n">
-        <v>-59.99999999999787</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>6.109999999999972</v>
       </c>
@@ -24900,9 +24810,7 @@
       <c r="J477" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K477" t="n">
-        <v>-59.99999999999787</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -24951,9 +24859,7 @@
       <c r="J478" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K478" t="n">
-        <v>-59.99999999999787</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25002,9 +24908,7 @@
       <c r="J479" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K479" t="n">
-        <v>-59.99999999999787</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25053,9 +24957,7 @@
       <c r="J480" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K480" t="n">
-        <v>-33.33333333333136</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25104,9 +25006,7 @@
       <c r="J481" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K481" t="n">
-        <v>-33.33333333333136</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25155,9 +25055,7 @@
       <c r="J482" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K482" t="n">
-        <v>-33.33333333333136</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25206,9 +25104,7 @@
       <c r="J483" t="n">
         <v>2.730000000000005</v>
       </c>
-      <c r="K483" t="n">
-        <v>-33.33333333333136</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>6.109999999999973</v>
       </c>
@@ -25258,7 +25154,7 @@
         <v>2.740000000000006</v>
       </c>
       <c r="K484" t="n">
-        <v>-49.99999999999889</v>
+        <v>-100</v>
       </c>
       <c r="L484" t="n">
         <v>6.108999999999972</v>
@@ -25360,7 +25256,7 @@
         <v>2.750000000000006</v>
       </c>
       <c r="K486" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>6.108999999999972</v>
@@ -25717,7 +25613,7 @@
         <v>2.800000000000005</v>
       </c>
       <c r="K493" t="n">
-        <v>14.28571428571392</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L493" t="n">
         <v>6.122999999999972</v>
@@ -25768,7 +25664,7 @@
         <v>2.810000000000005</v>
       </c>
       <c r="K494" t="n">
-        <v>24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L494" t="n">
         <v>6.125999999999971</v>
@@ -25819,7 +25715,7 @@
         <v>2.810000000000005</v>
       </c>
       <c r="K495" t="n">
-        <v>24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>6.127999999999972</v>
@@ -25870,7 +25766,7 @@
         <v>2.810000000000005</v>
       </c>
       <c r="K496" t="n">
-        <v>24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>6.129999999999971</v>
@@ -25921,7 +25817,7 @@
         <v>2.820000000000005</v>
       </c>
       <c r="K497" t="n">
-        <v>11.11111111111089</v>
+        <v>-20</v>
       </c>
       <c r="L497" t="n">
         <v>6.130999999999972</v>
@@ -25972,7 +25868,7 @@
         <v>2.830000000000005</v>
       </c>
       <c r="K498" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>6.128999999999971</v>
@@ -26023,7 +25919,7 @@
         <v>2.830000000000005</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L499" t="n">
         <v>6.126999999999972</v>
@@ -26074,7 +25970,7 @@
         <v>2.840000000000005</v>
       </c>
       <c r="K500" t="n">
-        <v>-9.090909090909678</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L500" t="n">
         <v>6.122999999999972</v>
@@ -26125,7 +26021,7 @@
         <v>2.840000000000005</v>
       </c>
       <c r="K501" t="n">
-        <v>-9.090909090909678</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L501" t="n">
         <v>6.118999999999971</v>
@@ -26176,7 +26072,7 @@
         <v>2.860000000000005</v>
       </c>
       <c r="K502" t="n">
-        <v>-23.07692307692329</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L502" t="n">
         <v>6.112999999999971</v>
@@ -26227,7 +26123,7 @@
         <v>2.870000000000005</v>
       </c>
       <c r="K503" t="n">
-        <v>-28.57142857142867</v>
+        <v>-100</v>
       </c>
       <c r="L503" t="n">
         <v>6.10799999999997</v>
@@ -26278,7 +26174,7 @@
         <v>2.930000000000005</v>
       </c>
       <c r="K504" t="n">
-        <v>-47.36842105263162</v>
+        <v>-100</v>
       </c>
       <c r="L504" t="n">
         <v>6.09599999999997</v>
@@ -26329,7 +26225,7 @@
         <v>2.940000000000005</v>
       </c>
       <c r="K505" t="n">
-        <v>-47.36842105263231</v>
+        <v>-84.61538461538493</v>
       </c>
       <c r="L505" t="n">
         <v>6.084999999999971</v>
@@ -26380,7 +26276,7 @@
         <v>2.950000000000006</v>
       </c>
       <c r="K506" t="n">
-        <v>-40.00000000000018</v>
+        <v>-69.2307692307687</v>
       </c>
       <c r="L506" t="n">
         <v>6.074999999999969</v>
@@ -26431,7 +26327,7 @@
         <v>2.960000000000005</v>
       </c>
       <c r="K507" t="n">
-        <v>-33.33333333333361</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L507" t="n">
         <v>6.06699999999997</v>
@@ -26482,7 +26378,7 @@
         <v>2.970000000000005</v>
       </c>
       <c r="K508" t="n">
-        <v>-40.00000000000018</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L508" t="n">
         <v>6.06099999999997</v>
@@ -26533,7 +26429,7 @@
         <v>2.980000000000005</v>
       </c>
       <c r="K509" t="n">
-        <v>-42.85714285714297</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L509" t="n">
         <v>6.053999999999971</v>
@@ -26584,7 +26480,7 @@
         <v>2.980000000000005</v>
       </c>
       <c r="K510" t="n">
-        <v>-50</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L510" t="n">
         <v>6.047999999999972</v>
@@ -26635,7 +26531,7 @@
         <v>2.980000000000005</v>
       </c>
       <c r="K511" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L511" t="n">
         <v>6.041999999999971</v>
@@ -26686,7 +26582,7 @@
         <v>2.990000000000005</v>
       </c>
       <c r="K512" t="n">
-        <v>-42.85714285714297</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L512" t="n">
         <v>6.038999999999971</v>
@@ -26737,7 +26633,7 @@
         <v>3.000000000000004</v>
       </c>
       <c r="K513" t="n">
-        <v>-30.00000000000036</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L513" t="n">
         <v>6.037999999999972</v>
@@ -26788,7 +26684,7 @@
         <v>3.010000000000004</v>
       </c>
       <c r="K514" t="n">
-        <v>-40.00000000000018</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L514" t="n">
         <v>6.041999999999972</v>
@@ -26839,7 +26735,7 @@
         <v>3.020000000000004</v>
       </c>
       <c r="K515" t="n">
-        <v>-33.33333333333361</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L515" t="n">
         <v>6.045999999999973</v>
@@ -26890,7 +26786,7 @@
         <v>3.030000000000004</v>
       </c>
       <c r="K516" t="n">
-        <v>-36.36363636363658</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L516" t="n">
         <v>6.047999999999972</v>
@@ -26941,7 +26837,7 @@
         <v>3.040000000000004</v>
       </c>
       <c r="K517" t="n">
-        <v>-27.27272727272764</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L517" t="n">
         <v>6.049999999999972</v>
@@ -26992,7 +26888,7 @@
         <v>3.060000000000003</v>
       </c>
       <c r="K518" t="n">
-        <v>-30.43478260869595</v>
+        <v>0</v>
       </c>
       <c r="L518" t="n">
         <v>6.048999999999973</v>
@@ -27043,7 +26939,7 @@
         <v>3.080000000000003</v>
       </c>
       <c r="K519" t="n">
-        <v>-20.00000000000043</v>
+        <v>20</v>
       </c>
       <c r="L519" t="n">
         <v>6.050999999999973</v>
@@ -27094,7 +26990,7 @@
         <v>3.080000000000003</v>
       </c>
       <c r="K520" t="n">
-        <v>-16.66666666666685</v>
+        <v>20</v>
       </c>
       <c r="L520" t="n">
         <v>6.052999999999972</v>
@@ -27145,7 +27041,7 @@
         <v>3.100000000000003</v>
       </c>
       <c r="K521" t="n">
-        <v>-7.692307692307587</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L521" t="n">
         <v>6.056999999999973</v>
@@ -27196,7 +27092,7 @@
         <v>3.110000000000003</v>
       </c>
       <c r="K522" t="n">
-        <v>3.999999999999943</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L522" t="n">
         <v>6.060999999999973</v>
@@ -27247,7 +27143,7 @@
         <v>3.110000000000003</v>
       </c>
       <c r="K523" t="n">
-        <v>8.33333333333321</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L523" t="n">
         <v>6.063999999999973</v>
@@ -27298,7 +27194,7 @@
         <v>3.120000000000003</v>
       </c>
       <c r="K524" t="n">
-        <v>47.36842105263207</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L524" t="n">
         <v>6.068999999999972</v>
@@ -27349,7 +27245,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K525" t="n">
-        <v>47.36842105263231</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L525" t="n">
         <v>6.073999999999972</v>
@@ -27400,7 +27296,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K526" t="n">
-        <v>44.44444444444499</v>
+        <v>55.55555555555644</v>
       </c>
       <c r="L526" t="n">
         <v>6.079999999999973</v>
@@ -27451,7 +27347,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K527" t="n">
-        <v>41.17647058823591</v>
+        <v>100</v>
       </c>
       <c r="L527" t="n">
         <v>6.084999999999972</v>
@@ -27502,7 +27398,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K528" t="n">
-        <v>37.5000000000007</v>
+        <v>100</v>
       </c>
       <c r="L528" t="n">
         <v>6.091999999999972</v>
@@ -27553,7 +27449,7 @@
         <v>3.140000000000003</v>
       </c>
       <c r="K529" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L529" t="n">
         <v>6.097999999999972</v>
@@ -27604,7 +27500,7 @@
         <v>3.140000000000003</v>
       </c>
       <c r="K530" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L530" t="n">
         <v>6.103999999999973</v>
@@ -27655,7 +27551,7 @@
         <v>3.150000000000003</v>
       </c>
       <c r="K531" t="n">
-        <v>52.94117647058872</v>
+        <v>100</v>
       </c>
       <c r="L531" t="n">
         <v>6.108999999999972</v>
@@ -27706,7 +27602,7 @@
         <v>3.150000000000003</v>
       </c>
       <c r="K532" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L532" t="n">
         <v>6.112999999999971</v>
@@ -27757,7 +27653,7 @@
         <v>3.150000000000003</v>
       </c>
       <c r="K533" t="n">
-        <v>46.6666666666673</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>6.116999999999971</v>
@@ -27808,7 +27704,7 @@
         <v>3.150000000000003</v>
       </c>
       <c r="K534" t="n">
-        <v>57.14285714285769</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>6.11999999999997</v>
@@ -27859,7 +27755,7 @@
         <v>3.150000000000003</v>
       </c>
       <c r="K535" t="n">
-        <v>53.84615384615448</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>6.12199999999997</v>
@@ -27910,7 +27806,7 @@
         <v>3.160000000000003</v>
       </c>
       <c r="K536" t="n">
-        <v>69.23076923076965</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>6.12499999999997</v>
@@ -27961,7 +27857,7 @@
         <v>3.170000000000003</v>
       </c>
       <c r="K537" t="n">
-        <v>53.84615384615448</v>
+        <v>50</v>
       </c>
       <c r="L537" t="n">
         <v>6.12699999999997</v>
@@ -28012,7 +27908,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K538" t="n">
-        <v>85.71428571428599</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L538" t="n">
         <v>6.131999999999969</v>
@@ -28063,7 +27959,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K539" t="n">
-        <v>86.66666666666698</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L539" t="n">
         <v>6.138999999999969</v>
@@ -28114,7 +28010,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K540" t="n">
-        <v>86.66666666666698</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L540" t="n">
         <v>6.145999999999971</v>
@@ -28165,7 +28061,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K541" t="n">
-        <v>84.61538461538493</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L541" t="n">
         <v>6.151999999999971</v>
@@ -28216,7 +28112,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K542" t="n">
-        <v>83.3333333333337</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L542" t="n">
         <v>6.157999999999971</v>
@@ -28267,7 +28163,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K543" t="n">
-        <v>83.3333333333337</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L543" t="n">
         <v>6.163999999999971</v>
@@ -28318,7 +28214,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K544" t="n">
-        <v>81.81818181818225</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L544" t="n">
         <v>6.169999999999972</v>
@@ -28369,7 +28265,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K545" t="n">
-        <v>81.81818181818211</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L545" t="n">
         <v>6.17699999999997</v>
@@ -28420,7 +28316,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K546" t="n">
-        <v>81.81818181818211</v>
+        <v>100</v>
       </c>
       <c r="L546" t="n">
         <v>6.18299999999997</v>
@@ -28471,7 +28367,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K547" t="n">
-        <v>81.81818181818211</v>
+        <v>100</v>
       </c>
       <c r="L547" t="n">
         <v>6.18999999999997</v>
@@ -28522,7 +28418,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K548" t="n">
-        <v>81.81818181818211</v>
+        <v>100</v>
       </c>
       <c r="L548" t="n">
         <v>6.19399999999997</v>
@@ -28573,7 +28469,7 @@
         <v>3.250000000000003</v>
       </c>
       <c r="K549" t="n">
-        <v>81.81818181818211</v>
+        <v>100</v>
       </c>
       <c r="L549" t="n">
         <v>6.19599999999997</v>
@@ -28624,7 +28520,7 @@
         <v>3.280000000000003</v>
       </c>
       <c r="K550" t="n">
-        <v>85.71428571428599</v>
+        <v>100</v>
       </c>
       <c r="L550" t="n">
         <v>6.200999999999969</v>
@@ -28675,7 +28571,7 @@
         <v>3.290000000000003</v>
       </c>
       <c r="K551" t="n">
-        <v>85.71428571428599</v>
+        <v>100</v>
       </c>
       <c r="L551" t="n">
         <v>6.20699999999997</v>
@@ -28726,7 +28622,7 @@
         <v>3.290000000000003</v>
       </c>
       <c r="K552" t="n">
-        <v>85.71428571428599</v>
+        <v>100</v>
       </c>
       <c r="L552" t="n">
         <v>6.21299999999997</v>
@@ -28777,7 +28673,7 @@
         <v>3.320000000000003</v>
       </c>
       <c r="K553" t="n">
-        <v>88.2352941176473</v>
+        <v>100</v>
       </c>
       <c r="L553" t="n">
         <v>6.22199999999997</v>
@@ -28828,7 +28724,7 @@
         <v>3.330000000000004</v>
       </c>
       <c r="K554" t="n">
-        <v>77.77777777777733</v>
+        <v>77.77777777777646</v>
       </c>
       <c r="L554" t="n">
         <v>6.22999999999997</v>
@@ -28879,7 +28775,7 @@
         <v>3.340000000000004</v>
       </c>
       <c r="K555" t="n">
-        <v>78.94736842105229</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L555" t="n">
         <v>6.237999999999969</v>
@@ -28930,7 +28826,7 @@
         <v>3.340000000000004</v>
       </c>
       <c r="K556" t="n">
-        <v>77.77777777777744</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L556" t="n">
         <v>6.245999999999969</v>
@@ -28981,7 +28877,7 @@
         <v>3.340000000000004</v>
       </c>
       <c r="K557" t="n">
-        <v>88.23529411764638</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L557" t="n">
         <v>6.253999999999969</v>
@@ -29032,7 +28928,7 @@
         <v>3.350000000000005</v>
       </c>
       <c r="K558" t="n">
-        <v>73.33333333333191</v>
+        <v>59.99999999999822</v>
       </c>
       <c r="L558" t="n">
         <v>6.260999999999969</v>
@@ -29083,7 +28979,7 @@
         <v>3.360000000000005</v>
       </c>
       <c r="K559" t="n">
-        <v>53.84615384615269</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L559" t="n">
         <v>6.265999999999969</v>
@@ -29134,7 +29030,7 @@
         <v>3.370000000000005</v>
       </c>
       <c r="K560" t="n">
-        <v>57.14285714285596</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L560" t="n">
         <v>6.268999999999969</v>
@@ -29185,7 +29081,7 @@
         <v>3.380000000000004</v>
       </c>
       <c r="K561" t="n">
-        <v>46.66666666666588</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L561" t="n">
         <v>6.269999999999969</v>
@@ -29236,7 +29132,7 @@
         <v>3.380000000000004</v>
       </c>
       <c r="K562" t="n">
-        <v>46.66666666666588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>6.27099999999997</v>
@@ -29287,7 +29183,7 @@
         <v>3.390000000000004</v>
       </c>
       <c r="K563" t="n">
-        <v>49.99999999999917</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>6.269999999999969</v>
@@ -29338,7 +29234,7 @@
         <v>3.400000000000004</v>
       </c>
       <c r="K564" t="n">
-        <v>41.17647058823474</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L564" t="n">
         <v>6.26899999999997</v>
@@ -29389,7 +29285,7 @@
         <v>3.400000000000004</v>
       </c>
       <c r="K565" t="n">
-        <v>37.49999999999952</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L565" t="n">
         <v>6.26699999999997</v>
@@ -29440,7 +29336,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K566" t="n">
-        <v>41.17647058823474</v>
+        <v>-14.28571428571537</v>
       </c>
       <c r="L566" t="n">
         <v>6.26599999999997</v>
@@ -29491,7 +29387,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K567" t="n">
-        <v>41.17647058823474</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>6.264999999999969</v>
@@ -29542,7 +29438,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K568" t="n">
-        <v>41.17647058823474</v>
+        <v>20</v>
       </c>
       <c r="L568" t="n">
         <v>6.264999999999969</v>
@@ -29593,7 +29489,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K569" t="n">
-        <v>37.49999999999952</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>6.265999999999969</v>
@@ -29644,7 +29540,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K570" t="n">
-        <v>23.07692307692244</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L570" t="n">
         <v>6.26599999999997</v>
@@ -29695,7 +29591,7 @@
         <v>3.410000000000004</v>
       </c>
       <c r="K571" t="n">
-        <v>16.66666666666617</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L571" t="n">
         <v>6.266999999999969</v>
@@ -29746,7 +29642,7 @@
         <v>3.420000000000003</v>
       </c>
       <c r="K572" t="n">
-        <v>7.692307692307482</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L572" t="n">
         <v>6.266999999999969</v>
@@ -29797,7 +29693,7 @@
         <v>3.430000000000003</v>
       </c>
       <c r="K573" t="n">
-        <v>-27.27272727272742</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L573" t="n">
         <v>6.26499999999997</v>
@@ -29848,7 +29744,7 @@
         <v>3.440000000000003</v>
       </c>
       <c r="K574" t="n">
-        <v>-27.27272727272683</v>
+        <v>-50</v>
       </c>
       <c r="L574" t="n">
         <v>6.262999999999971</v>
@@ -29899,7 +29795,7 @@
         <v>3.460000000000004</v>
       </c>
       <c r="K575" t="n">
-        <v>-50.00000000000075</v>
+        <v>-100</v>
       </c>
       <c r="L575" t="n">
         <v>6.258999999999971</v>
@@ -29950,7 +29846,7 @@
         <v>3.460000000000004</v>
       </c>
       <c r="K576" t="n">
-        <v>-50.00000000000075</v>
+        <v>-100</v>
       </c>
       <c r="L576" t="n">
         <v>6.253999999999972</v>
@@ -30001,7 +29897,7 @@
         <v>3.470000000000003</v>
       </c>
       <c r="K577" t="n">
-        <v>-53.84615384615448</v>
+        <v>-100</v>
       </c>
       <c r="L577" t="n">
         <v>6.247999999999972</v>
@@ -30052,7 +29948,7 @@
         <v>3.480000000000003</v>
       </c>
       <c r="K578" t="n">
-        <v>-53.84615384615417</v>
+        <v>-100</v>
       </c>
       <c r="L578" t="n">
         <v>6.240999999999973</v>
@@ -30103,7 +29999,7 @@
         <v>3.490000000000003</v>
       </c>
       <c r="K579" t="n">
-        <v>-53.84615384615417</v>
+        <v>-100</v>
       </c>
       <c r="L579" t="n">
         <v>6.232999999999973</v>
@@ -30154,7 +30050,7 @@
         <v>3.490000000000003</v>
       </c>
       <c r="K580" t="n">
-        <v>-66.66666666666691</v>
+        <v>-100</v>
       </c>
       <c r="L580" t="n">
         <v>6.224999999999973</v>
@@ -30205,7 +30101,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K581" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L581" t="n">
         <v>6.215999999999973</v>
@@ -30256,7 +30152,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K582" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L582" t="n">
         <v>6.207999999999972</v>
@@ -30307,7 +30203,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K583" t="n">
-        <v>-81.81818181818211</v>
+        <v>-100</v>
       </c>
       <c r="L583" t="n">
         <v>6.200999999999972</v>
@@ -30358,7 +30254,7 @@
         <v>3.520000000000004</v>
       </c>
       <c r="K584" t="n">
-        <v>-49.99999999999963</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L584" t="n">
         <v>6.196999999999973</v>
@@ -30409,7 +30305,7 @@
         <v>3.520000000000004</v>
       </c>
       <c r="K585" t="n">
-        <v>-49.99999999999963</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L585" t="n">
         <v>6.194999999999972</v>
@@ -30460,7 +30356,7 @@
         <v>3.520000000000004</v>
       </c>
       <c r="K586" t="n">
-        <v>-63.6363636363629</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L586" t="n">
         <v>6.192999999999972</v>
@@ -30511,7 +30407,7 @@
         <v>3.530000000000004</v>
       </c>
       <c r="K587" t="n">
-        <v>-49.99999999999963</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L587" t="n">
         <v>6.192999999999971</v>
@@ -30562,7 +30458,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K588" t="n">
-        <v>-38.46153846153836</v>
+        <v>59.99999999999787</v>
       </c>
       <c r="L588" t="n">
         <v>6.194999999999972</v>
@@ -30613,7 +30509,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K589" t="n">
-        <v>-38.46153846153836</v>
+        <v>59.99999999999787</v>
       </c>
       <c r="L589" t="n">
         <v>6.197999999999972</v>
@@ -30664,7 +30560,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K590" t="n">
-        <v>-38.46153846153836</v>
+        <v>100</v>
       </c>
       <c r="L590" t="n">
         <v>6.200999999999972</v>
@@ -30715,7 +30611,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K591" t="n">
-        <v>-38.46153846153836</v>
+        <v>100</v>
       </c>
       <c r="L591" t="n">
         <v>6.204999999999972</v>
@@ -30766,7 +30662,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K592" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L592" t="n">
         <v>6.208999999999973</v>
@@ -30817,7 +30713,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K593" t="n">
-        <v>-27.27272727272742</v>
+        <v>100</v>
       </c>
       <c r="L593" t="n">
         <v>6.212999999999973</v>
@@ -30868,7 +30764,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K594" t="n">
-        <v>-20.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L594" t="n">
         <v>6.214999999999973</v>
@@ -30919,7 +30815,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L595" t="n">
         <v>6.216999999999973</v>
@@ -30970,7 +30866,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L596" t="n">
         <v>6.218999999999973</v>
@@ -31020,9 +30916,7 @@
       <c r="J597" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K597" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>6.219999999999972</v>
       </c>
@@ -31071,9 +30965,7 @@
       <c r="J598" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K598" t="n">
-        <v>33.33333333333235</v>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31122,9 +31014,7 @@
       <c r="J599" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K599" t="n">
-        <v>59.99999999999787</v>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31173,9 +31063,7 @@
       <c r="J600" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K600" t="n">
-        <v>59.99999999999787</v>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31224,9 +31112,7 @@
       <c r="J601" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K601" t="n">
-        <v>100</v>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31275,9 +31161,7 @@
       <c r="J602" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K602" t="n">
-        <v>100</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31326,9 +31210,7 @@
       <c r="J603" t="n">
         <v>3.540000000000004</v>
       </c>
-      <c r="K603" t="n">
-        <v>100</v>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>6.219999999999973</v>
       </c>
@@ -31378,7 +31260,7 @@
         <v>3.550000000000003</v>
       </c>
       <c r="K604" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L604" t="n">
         <v>6.218999999999973</v>
@@ -31429,7 +31311,7 @@
         <v>3.550000000000003</v>
       </c>
       <c r="K605" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L605" t="n">
         <v>6.217999999999972</v>
@@ -31480,7 +31362,7 @@
         <v>3.550000000000003</v>
       </c>
       <c r="K606" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L606" t="n">
         <v>6.216999999999972</v>
@@ -31531,7 +31413,7 @@
         <v>3.560000000000003</v>
       </c>
       <c r="K607" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>6.216999999999972</v>
@@ -31837,7 +31719,7 @@
         <v>3.570000000000004</v>
       </c>
       <c r="K613" t="n">
-        <v>33.33333333333531</v>
+        <v>100</v>
       </c>
       <c r="L613" t="n">
         <v>6.221999999999975</v>
@@ -31888,7 +31770,7 @@
         <v>3.570000000000004</v>
       </c>
       <c r="K614" t="n">
-        <v>33.33333333333531</v>
+        <v>100</v>
       </c>
       <c r="L614" t="n">
         <v>6.223999999999974</v>
@@ -31939,7 +31821,7 @@
         <v>3.570000000000004</v>
       </c>
       <c r="K615" t="n">
-        <v>33.33333333333531</v>
+        <v>100</v>
       </c>
       <c r="L615" t="n">
         <v>6.225999999999974</v>
@@ -31990,7 +31872,7 @@
         <v>3.580000000000004</v>
       </c>
       <c r="K616" t="n">
-        <v>50.00000000000111</v>
+        <v>100</v>
       </c>
       <c r="L616" t="n">
         <v>6.228999999999974</v>
@@ -32041,7 +31923,7 @@
         <v>3.580000000000004</v>
       </c>
       <c r="K617" t="n">
-        <v>50.00000000000111</v>
+        <v>100</v>
       </c>
       <c r="L617" t="n">
         <v>6.230999999999975</v>
@@ -32092,7 +31974,7 @@
         <v>3.600000000000004</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L618" t="n">
         <v>6.230999999999975</v>
@@ -32143,7 +32025,7 @@
         <v>3.610000000000005</v>
       </c>
       <c r="K619" t="n">
-        <v>14.28571428571501</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>6.230999999999975</v>
@@ -32194,7 +32076,7 @@
         <v>3.620000000000005</v>
       </c>
       <c r="K620" t="n">
-        <v>25.00000000000028</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L620" t="n">
         <v>6.231999999999974</v>
@@ -32245,7 +32127,7 @@
         <v>3.630000000000004</v>
       </c>
       <c r="K621" t="n">
-        <v>11.11111111111177</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>6.231999999999974</v>
@@ -32296,7 +32178,7 @@
         <v>3.670000000000003</v>
       </c>
       <c r="K622" t="n">
-        <v>38.46153846153836</v>
+        <v>39.99999999999929</v>
       </c>
       <c r="L622" t="n">
         <v>6.235999999999973</v>
@@ -32347,7 +32229,7 @@
         <v>3.680000000000003</v>
       </c>
       <c r="K623" t="n">
-        <v>28.57142857142867</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L623" t="n">
         <v>6.238999999999973</v>
@@ -32398,7 +32280,7 @@
         <v>3.680000000000003</v>
       </c>
       <c r="K624" t="n">
-        <v>38.46153846153836</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L624" t="n">
         <v>6.241999999999973</v>
@@ -32449,7 +32331,7 @@
         <v>3.690000000000003</v>
       </c>
       <c r="K625" t="n">
-        <v>42.85714285714268</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L625" t="n">
         <v>6.245999999999972</v>
@@ -32500,7 +32382,7 @@
         <v>3.710000000000003</v>
       </c>
       <c r="K626" t="n">
-        <v>25.00000000000014</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L626" t="n">
         <v>6.246999999999972</v>
@@ -32551,7 +32433,7 @@
         <v>3.710000000000003</v>
       </c>
       <c r="K627" t="n">
-        <v>20.00000000000024</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L627" t="n">
         <v>6.247999999999971</v>
@@ -32602,7 +32484,7 @@
         <v>3.720000000000002</v>
       </c>
       <c r="K628" t="n">
-        <v>25.00000000000014</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L628" t="n">
         <v>6.251999999999971</v>
@@ -32653,7 +32535,7 @@
         <v>3.730000000000002</v>
       </c>
       <c r="K629" t="n">
-        <v>24.99999999999972</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L629" t="n">
         <v>6.25599999999997</v>
@@ -32704,7 +32586,7 @@
         <v>3.730000000000002</v>
       </c>
       <c r="K630" t="n">
-        <v>24.99999999999972</v>
+        <v>40</v>
       </c>
       <c r="L630" t="n">
         <v>6.25899999999997</v>
@@ -32755,7 +32637,7 @@
         <v>3.740000000000002</v>
       </c>
       <c r="K631" t="n">
-        <v>17.64705882352923</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L631" t="n">
         <v>6.261999999999969</v>
@@ -32806,7 +32688,7 @@
         <v>3.760000000000002</v>
       </c>
       <c r="K632" t="n">
-        <v>26.31578947368431</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L632" t="n">
         <v>6.26299999999997</v>
@@ -32857,7 +32739,7 @@
         <v>3.770000000000003</v>
       </c>
       <c r="K633" t="n">
-        <v>19.99999999999964</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L633" t="n">
         <v>6.263999999999969</v>
@@ -32908,7 +32790,7 @@
         <v>3.780000000000004</v>
       </c>
       <c r="K634" t="n">
-        <v>23.80952380952373</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L634" t="n">
         <v>6.265999999999969</v>
@@ -32959,7 +32841,7 @@
         <v>3.780000000000004</v>
       </c>
       <c r="K635" t="n">
-        <v>23.80952380952373</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L635" t="n">
         <v>6.266999999999969</v>
@@ -33010,7 +32892,7 @@
         <v>3.780000000000004</v>
       </c>
       <c r="K636" t="n">
-        <v>20</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L636" t="n">
         <v>6.269999999999969</v>
@@ -33061,7 +32943,7 @@
         <v>3.790000000000004</v>
       </c>
       <c r="K637" t="n">
-        <v>23.80952380952373</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L637" t="n">
         <v>6.27399999999997</v>
@@ -33112,7 +32994,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K638" t="n">
-        <v>40.00000000000018</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L638" t="n">
         <v>6.277999999999969</v>
@@ -33163,7 +33045,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K639" t="n">
-        <v>36.84210526315785</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L639" t="n">
         <v>6.28099999999997</v>
@@ -33214,7 +33096,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K640" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L640" t="n">
         <v>6.28399999999997</v>
@@ -33265,7 +33147,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K641" t="n">
-        <v>41.17647058823517</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L641" t="n">
         <v>6.28799999999997</v>
@@ -33316,7 +33198,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K642" t="n">
-        <v>23.07692307692329</v>
+        <v>100</v>
       </c>
       <c r="L642" t="n">
         <v>6.289999999999971</v>
@@ -33367,7 +33249,7 @@
         <v>3.830000000000004</v>
       </c>
       <c r="K643" t="n">
-        <v>46.66666666666674</v>
+        <v>100</v>
       </c>
       <c r="L643" t="n">
         <v>6.295999999999971</v>
@@ -33418,7 +33300,7 @@
         <v>3.880000000000003</v>
       </c>
       <c r="K644" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L644" t="n">
         <v>6.305999999999971</v>
@@ -33469,7 +33351,7 @@
         <v>3.880000000000003</v>
       </c>
       <c r="K645" t="n">
-        <v>57.89473684210531</v>
+        <v>100</v>
       </c>
       <c r="L645" t="n">
         <v>6.31599999999997</v>
@@ -33520,7 +33402,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K646" t="n">
-        <v>57.89473684210531</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L646" t="n">
         <v>6.32399999999997</v>
@@ -33571,7 +33453,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K647" t="n">
-        <v>57.89473684210531</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L647" t="n">
         <v>6.330999999999969</v>
@@ -33622,7 +33504,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K648" t="n">
-        <v>55.55555555555567</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L648" t="n">
         <v>6.33699999999997</v>
@@ -33673,7 +33555,7 @@
         <v>3.910000000000004</v>
       </c>
       <c r="K649" t="n">
-        <v>44.44444444444412</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L649" t="n">
         <v>6.34199999999997</v>
@@ -33724,7 +33606,7 @@
         <v>3.930000000000004</v>
       </c>
       <c r="K650" t="n">
-        <v>49.99999999999978</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L650" t="n">
         <v>6.348999999999971</v>
@@ -33775,7 +33657,7 @@
         <v>3.940000000000004</v>
       </c>
       <c r="K651" t="n">
-        <v>49.99999999999978</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L651" t="n">
         <v>6.354999999999971</v>
@@ -33826,7 +33708,7 @@
         <v>3.950000000000004</v>
       </c>
       <c r="K652" t="n">
-        <v>47.36842105263118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L652" t="n">
         <v>6.361999999999972</v>
@@ -33877,7 +33759,7 @@
         <v>3.950000000000004</v>
       </c>
       <c r="K653" t="n">
-        <v>55.55555555555567</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L653" t="n">
         <v>6.365999999999973</v>
@@ -33928,7 +33810,7 @@
         <v>3.950000000000004</v>
       </c>
       <c r="K654" t="n">
-        <v>52.94117647058817</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L654" t="n">
         <v>6.364999999999973</v>
@@ -33979,7 +33861,7 @@
         <v>3.950000000000004</v>
       </c>
       <c r="K655" t="n">
-        <v>52.94117647058817</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L655" t="n">
         <v>6.363999999999972</v>
@@ -34030,7 +33912,7 @@
         <v>3.960000000000004</v>
       </c>
       <c r="K656" t="n">
-        <v>55.55555555555544</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L656" t="n">
         <v>6.365999999999973</v>
@@ -34081,7 +33963,7 @@
         <v>3.960000000000004</v>
       </c>
       <c r="K657" t="n">
-        <v>52.94117647058817</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L657" t="n">
         <v>6.367999999999972</v>
@@ -34132,7 +34014,7 @@
         <v>3.960000000000004</v>
       </c>
       <c r="K658" t="n">
-        <v>50</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L658" t="n">
         <v>6.369999999999972</v>
@@ -34183,7 +34065,7 @@
         <v>3.980000000000004</v>
       </c>
       <c r="K659" t="n">
-        <v>55.55555555555567</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L659" t="n">
         <v>6.374999999999972</v>
@@ -34234,7 +34116,7 @@
         <v>4.010000000000004</v>
       </c>
       <c r="K660" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L660" t="n">
         <v>6.374999999999972</v>
@@ -34285,7 +34167,7 @@
         <v>4.030000000000004</v>
       </c>
       <c r="K661" t="n">
-        <v>39.13043478260856</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L661" t="n">
         <v>6.377999999999972</v>
@@ -34336,7 +34218,7 @@
         <v>4.040000000000004</v>
       </c>
       <c r="K662" t="n">
-        <v>41.6666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L662" t="n">
         <v>6.380999999999973</v>
@@ -34387,7 +34269,7 @@
         <v>4.100000000000004</v>
       </c>
       <c r="K663" t="n">
-        <v>48.14814814814803</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L663" t="n">
         <v>6.389999999999973</v>
@@ -34438,7 +34320,7 @@
         <v>4.120000000000005</v>
       </c>
       <c r="K664" t="n">
-        <v>41.6666666666667</v>
+        <v>64.70588235294106</v>
       </c>
       <c r="L664" t="n">
         <v>6.400999999999972</v>
@@ -34489,7 +34371,7 @@
         <v>4.130000000000004</v>
       </c>
       <c r="K665" t="n">
-        <v>43.99999999999997</v>
+        <v>64.70588235294106</v>
       </c>
       <c r="L665" t="n">
         <v>6.412999999999971</v>
@@ -34540,7 +34422,7 @@
         <v>4.150000000000005</v>
       </c>
       <c r="K666" t="n">
-        <v>43.99999999999946</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L666" t="n">
         <v>6.421999999999971</v>
@@ -34591,7 +34473,7 @@
         <v>4.150000000000005</v>
       </c>
       <c r="K667" t="n">
-        <v>43.99999999999946</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L667" t="n">
         <v>6.430999999999972</v>
@@ -34642,7 +34524,7 @@
         <v>4.170000000000004</v>
       </c>
       <c r="K668" t="n">
-        <v>33.33333333333312</v>
+        <v>26.31578947368406</v>
       </c>
       <c r="L668" t="n">
         <v>6.437999999999972</v>
@@ -34693,7 +34575,7 @@
         <v>4.190000000000004</v>
       </c>
       <c r="K669" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L669" t="n">
         <v>6.444999999999972</v>
@@ -34744,7 +34626,7 @@
         <v>4.200000000000004</v>
       </c>
       <c r="K670" t="n">
-        <v>33.33333333333333</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L670" t="n">
         <v>6.45399999999997</v>
@@ -34795,7 +34677,7 @@
         <v>4.210000000000004</v>
       </c>
       <c r="K671" t="n">
-        <v>33.33333333333333</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L671" t="n">
         <v>6.459999999999971</v>
@@ -34846,7 +34728,7 @@
         <v>4.220000000000003</v>
       </c>
       <c r="K672" t="n">
-        <v>25.92592592592607</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L672" t="n">
         <v>6.46399999999997</v>
@@ -34897,7 +34779,7 @@
         <v>4.240000000000004</v>
       </c>
       <c r="K673" t="n">
-        <v>17.24137931034477</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L673" t="n">
         <v>6.459999999999971</v>
@@ -34948,7 +34830,7 @@
         <v>4.250000000000004</v>
       </c>
       <c r="K674" t="n">
-        <v>19.99999999999988</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L674" t="n">
         <v>6.454999999999972</v>
@@ -34999,7 +34881,7 @@
         <v>4.260000000000004</v>
       </c>
       <c r="K675" t="n">
-        <v>22.58064516129038</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L675" t="n">
         <v>6.449999999999972</v>
@@ -35050,7 +34932,7 @@
         <v>4.270000000000005</v>
       </c>
       <c r="K676" t="n">
-        <v>16.12903225806439</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L676" t="n">
         <v>6.445999999999972</v>
@@ -35101,7 +34983,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K677" t="n">
-        <v>18.75000000000003</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L677" t="n">
         <v>6.442999999999972</v>
@@ -35152,7 +35034,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K678" t="n">
-        <v>18.75000000000003</v>
+        <v>-33.33333333333201</v>
       </c>
       <c r="L678" t="n">
         <v>6.441999999999972</v>
@@ -35203,7 +35085,7 @@
         <v>4.280000000000006</v>
       </c>
       <c r="K679" t="n">
-        <v>13.33333333333328</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L679" t="n">
         <v>6.438999999999972</v>
@@ -35254,7 +35136,7 @@
         <v>4.290000000000006</v>
       </c>
       <c r="K680" t="n">
-        <v>21.42857142857113</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L680" t="n">
         <v>6.435999999999972</v>
@@ -35305,7 +35187,7 @@
         <v>4.290000000000006</v>
       </c>
       <c r="K681" t="n">
-        <v>15.38461538461525</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L681" t="n">
         <v>6.433999999999971</v>
@@ -35356,7 +35238,7 @@
         <v>4.300000000000007</v>
       </c>
       <c r="K682" t="n">
-        <v>15.38461538461525</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L682" t="n">
         <v>6.433999999999971</v>
@@ -35407,7 +35289,7 @@
         <v>4.300000000000007</v>
       </c>
       <c r="K683" t="n">
-        <v>-9.999999999999645</v>
+        <v>20</v>
       </c>
       <c r="L683" t="n">
         <v>6.43599999999997</v>
@@ -35458,7 +35340,7 @@
         <v>4.310000000000008</v>
       </c>
       <c r="K684" t="n">
-        <v>-26.31578947368416</v>
+        <v>-20</v>
       </c>
       <c r="L684" t="n">
         <v>6.43599999999997</v>
@@ -35509,7 +35391,7 @@
         <v>4.320000000000008</v>
       </c>
       <c r="K685" t="n">
-        <v>-26.31578947368357</v>
+        <v>20</v>
       </c>
       <c r="L685" t="n">
         <v>6.43599999999997</v>
@@ -35560,7 +35442,7 @@
         <v>4.330000000000009</v>
       </c>
       <c r="K686" t="n">
-        <v>-22.22222222222173</v>
+        <v>-20</v>
       </c>
       <c r="L686" t="n">
         <v>6.43599999999997</v>
@@ -35611,7 +35493,7 @@
         <v>4.340000000000009</v>
       </c>
       <c r="K687" t="n">
-        <v>-26.31578947368357</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L687" t="n">
         <v>6.433999999999971</v>
@@ -35662,7 +35544,7 @@
         <v>4.340000000000009</v>
       </c>
       <c r="K688" t="n">
-        <v>-17.6470588235291</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L688" t="n">
         <v>6.431999999999971</v>
@@ -35713,7 +35595,7 @@
         <v>4.340000000000009</v>
       </c>
       <c r="K689" t="n">
-        <v>-33.33333333333215</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L689" t="n">
         <v>6.429999999999971</v>
@@ -35764,7 +35646,7 @@
         <v>4.350000000000009</v>
       </c>
       <c r="K690" t="n">
-        <v>-19.99999999999953</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>6.42999999999997</v>
@@ -35815,7 +35697,7 @@
         <v>4.350000000000009</v>
       </c>
       <c r="K691" t="n">
-        <v>-14.28571428571411</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L691" t="n">
         <v>6.42999999999997</v>
@@ -35866,7 +35748,7 @@
         <v>4.350000000000009</v>
       </c>
       <c r="K692" t="n">
-        <v>-7.692307692307902</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L692" t="n">
         <v>6.428999999999971</v>
@@ -35917,7 +35799,7 @@
         <v>4.350000000000009</v>
       </c>
       <c r="K693" t="n">
-        <v>9.090909090908504</v>
+        <v>0</v>
       </c>
       <c r="L693" t="n">
         <v>6.427999999999972</v>
@@ -35968,7 +35850,7 @@
         <v>4.350000000000009</v>
       </c>
       <c r="K694" t="n">
-        <v>0</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L694" t="n">
         <v>6.427999999999972</v>
@@ -36019,7 +35901,7 @@
         <v>4.370000000000008</v>
       </c>
       <c r="K695" t="n">
-        <v>-27.27272727272654</v>
+        <v>-50</v>
       </c>
       <c r="L695" t="n">
         <v>6.424999999999971</v>
@@ -36070,7 +35952,7 @@
         <v>4.380000000000008</v>
       </c>
       <c r="K696" t="n">
-        <v>-27.27272727272595</v>
+        <v>-50</v>
       </c>
       <c r="L696" t="n">
         <v>6.421999999999971</v>
@@ -36121,7 +36003,7 @@
         <v>4.390000000000009</v>
       </c>
       <c r="K697" t="n">
-        <v>-45.45454545454486</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L697" t="n">
         <v>6.418999999999971</v>
@@ -36172,7 +36054,7 @@
         <v>4.410000000000008</v>
       </c>
       <c r="K698" t="n">
-        <v>-53.846153846153</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L698" t="n">
         <v>6.413999999999971</v>
@@ -36223,7 +36105,7 @@
         <v>4.530000000000008</v>
       </c>
       <c r="K699" t="n">
-        <v>-75.99999999999935</v>
+        <v>-100</v>
       </c>
       <c r="L699" t="n">
         <v>6.396999999999972</v>
@@ -36274,7 +36156,7 @@
         <v>4.550000000000008</v>
       </c>
       <c r="K700" t="n">
-        <v>-61.53846153846122</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L700" t="n">
         <v>6.380999999999971</v>
@@ -36325,7 +36207,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K701" t="n">
-        <v>-55.5555555555549</v>
+        <v>-71.42857142857119</v>
       </c>
       <c r="L701" t="n">
         <v>6.36599999999997</v>
@@ -36376,7 +36258,7 @@
         <v>4.570000000000008</v>
       </c>
       <c r="K702" t="n">
-        <v>-55.55555555555542</v>
+        <v>-63.63636363636355</v>
       </c>
       <c r="L702" t="n">
         <v>6.35199999999997</v>
@@ -36427,7 +36309,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K703" t="n">
-        <v>-39.99999999999982</v>
+        <v>-43.99999999999977</v>
       </c>
       <c r="L703" t="n">
         <v>6.340999999999971</v>
@@ -36478,7 +36360,7 @@
         <v>4.630000000000008</v>
       </c>
       <c r="K704" t="n">
-        <v>-25</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L704" t="n">
         <v>6.332999999999971</v>
@@ -36529,7 +36411,7 @@
         <v>4.700000000000008</v>
       </c>
       <c r="K705" t="n">
-        <v>-5.263157894736965</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L705" t="n">
         <v>6.33399999999997</v>
@@ -36580,7 +36462,7 @@
         <v>4.730000000000008</v>
       </c>
       <c r="K706" t="n">
-        <v>5.000000000000123</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L706" t="n">
         <v>6.338999999999971</v>
@@ -36631,7 +36513,7 @@
         <v>4.760000000000009</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L707" t="n">
         <v>6.34199999999997</v>
@@ -36682,7 +36564,7 @@
         <v>4.770000000000008</v>
       </c>
       <c r="K708" t="n">
-        <v>-2.325581395348789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L708" t="n">
         <v>6.34599999999997</v>
@@ -36733,7 +36615,7 @@
         <v>4.780000000000008</v>
       </c>
       <c r="K709" t="n">
-        <v>-4.545454545454454</v>
+        <v>56.52173913043502</v>
       </c>
       <c r="L709" t="n">
         <v>6.36099999999997</v>
@@ -36784,7 +36666,7 @@
         <v>4.780000000000008</v>
       </c>
       <c r="K710" t="n">
-        <v>-6.976744186046367</v>
+        <v>54.54545454545465</v>
       </c>
       <c r="L710" t="n">
         <v>6.373999999999971</v>
@@ -36835,7 +36717,7 @@
         <v>4.780000000000008</v>
       </c>
       <c r="K711" t="n">
-        <v>-6.976744186046367</v>
+        <v>52.38095238095254</v>
       </c>
       <c r="L711" t="n">
         <v>6.385999999999972</v>
@@ -36886,7 +36768,7 @@
         <v>4.790000000000009</v>
       </c>
       <c r="K712" t="n">
-        <v>-9.090909090909092</v>
+        <v>36.8421052631575</v>
       </c>
       <c r="L712" t="n">
         <v>6.395999999999971</v>
@@ -36937,7 +36819,7 @@
         <v>4.790000000000009</v>
       </c>
       <c r="K713" t="n">
-        <v>-9.090909090909092</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L713" t="n">
         <v>6.402999999999972</v>
@@ -36988,7 +36870,7 @@
         <v>4.790000000000009</v>
       </c>
       <c r="K714" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L714" t="n">
         <v>6.406999999999972</v>
@@ -37039,7 +36921,7 @@
         <v>4.830000000000009</v>
       </c>
       <c r="K715" t="n">
-        <v>-13.04347826086965</v>
+        <v>-100</v>
       </c>
       <c r="L715" t="n">
         <v>6.399999999999972</v>
@@ -37090,7 +36972,7 @@
         <v>4.850000000000009</v>
       </c>
       <c r="K716" t="n">
-        <v>-6.382978723404288</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L716" t="n">
         <v>6.391999999999972</v>
@@ -37141,7 +37023,7 @@
         <v>4.890000000000009</v>
       </c>
       <c r="K717" t="n">
-        <v>-11.9999999999999</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L717" t="n">
         <v>6.382999999999972</v>
@@ -37192,7 +37074,7 @@
         <v>4.910000000000009</v>
       </c>
       <c r="K718" t="n">
-        <v>-4.000000000000085</v>
+        <v>-38.46153846153877</v>
       </c>
       <c r="L718" t="n">
         <v>6.376999999999971</v>
@@ -37243,7 +37125,7 @@
         <v>4.97000000000001</v>
       </c>
       <c r="K719" t="n">
-        <v>36.3636363636363</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L719" t="n">
         <v>6.377999999999971</v>
@@ -37294,7 +37176,7 @@
         <v>4.97000000000001</v>
       </c>
       <c r="K720" t="n">
-        <v>33.33333333333333</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L720" t="n">
         <v>6.378999999999971</v>
@@ -37345,7 +37227,7 @@
         <v>4.980000000000009</v>
       </c>
       <c r="K721" t="n">
-        <v>33.33333333333319</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L721" t="n">
         <v>6.380999999999971</v>
@@ -37396,7 +37278,7 @@
         <v>4.990000000000009</v>
       </c>
       <c r="K722" t="n">
-        <v>28.57142857142854</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L722" t="n">
         <v>6.382999999999972</v>
@@ -37447,7 +37329,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K723" t="n">
-        <v>24.99999999999989</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L723" t="n">
         <v>6.385999999999972</v>
@@ -37498,7 +37380,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K724" t="n">
-        <v>18.91891891891894</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L724" t="n">
         <v>6.388999999999972</v>
@@ -37549,7 +37431,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K725" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L725" t="n">
         <v>6.395999999999971</v>
@@ -37600,7 +37482,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K726" t="n">
-        <v>-11.11111111111118</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L726" t="n">
         <v>6.40099999999997</v>
@@ -37651,7 +37533,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K727" t="n">
-        <v>0</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L727" t="n">
         <v>6.409999999999971</v>
@@ -37702,7 +37584,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K728" t="n">
-        <v>4.347826086956421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L728" t="n">
         <v>6.416999999999971</v>
@@ -37753,7 +37635,7 @@
         <v>5.010000000000009</v>
       </c>
       <c r="K729" t="n">
-        <v>4.347826086956421</v>
+        <v>0</v>
       </c>
       <c r="L729" t="n">
         <v>6.416999999999971</v>
@@ -37804,7 +37686,7 @@
         <v>5.010000000000009</v>
       </c>
       <c r="K730" t="n">
-        <v>4.347826086956421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L730" t="n">
         <v>6.416999999999971</v>
@@ -37855,7 +37737,7 @@
         <v>5.010000000000009</v>
       </c>
       <c r="K731" t="n">
-        <v>4.347826086956421</v>
+        <v>0</v>
       </c>
       <c r="L731" t="n">
         <v>6.415999999999971</v>
@@ -37906,7 +37788,7 @@
         <v>5.010000000000009</v>
       </c>
       <c r="K732" t="n">
-        <v>9.09090909090931</v>
+        <v>-100</v>
       </c>
       <c r="L732" t="n">
         <v>6.415999999999971</v>
@@ -37957,7 +37839,7 @@
         <v>5.010000000000009</v>
       </c>
       <c r="K733" t="n">
-        <v>9.09090909090931</v>
+        <v>-100</v>
       </c>
       <c r="L733" t="n">
         <v>6.414999999999971</v>
@@ -38008,7 +37890,7 @@
         <v>5.020000000000008</v>
       </c>
       <c r="K734" t="n">
-        <v>4.347826086956824</v>
+        <v>-100</v>
       </c>
       <c r="L734" t="n">
         <v>6.412999999999971</v>
@@ -38059,7 +37941,7 @@
         <v>5.020000000000008</v>
       </c>
       <c r="K735" t="n">
-        <v>26.31578947368465</v>
+        <v>-100</v>
       </c>
       <c r="L735" t="n">
         <v>6.410999999999971</v>
@@ -38110,7 +37992,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K736" t="n">
-        <v>22.22222222222239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L736" t="n">
         <v>6.409999999999971</v>
@@ -38161,7 +38043,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K737" t="n">
-        <v>57.14285714285769</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L737" t="n">
         <v>6.40899999999997</v>
@@ -38212,7 +38094,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K738" t="n">
-        <v>50.00000000000075</v>
+        <v>0</v>
       </c>
       <c r="L738" t="n">
         <v>6.40799999999997</v>
@@ -38365,7 +38247,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K741" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L741" t="n">
         <v>6.40799999999997</v>
@@ -38467,7 +38349,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K743" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L743" t="n">
         <v>6.40799999999997</v>
@@ -38518,7 +38400,7 @@
         <v>5.030000000000008</v>
       </c>
       <c r="K744" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L744" t="n">
         <v>6.408999999999969</v>
@@ -38568,9 +38450,7 @@
       <c r="J745" t="n">
         <v>5.030000000000008</v>
       </c>
-      <c r="K745" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>6.409999999999968</v>
       </c>
@@ -38619,9 +38499,7 @@
       <c r="J746" t="n">
         <v>5.030000000000008</v>
       </c>
-      <c r="K746" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>6.409999999999968</v>
       </c>
@@ -38670,9 +38548,7 @@
       <c r="J747" t="n">
         <v>5.030000000000008</v>
       </c>
-      <c r="K747" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>6.409999999999968</v>
       </c>
@@ -38721,9 +38597,7 @@
       <c r="J748" t="n">
         <v>5.030000000000008</v>
       </c>
-      <c r="K748" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>6.409999999999968</v>
       </c>
@@ -38773,7 +38647,7 @@
         <v>5.040000000000008</v>
       </c>
       <c r="K749" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L749" t="n">
         <v>6.408999999999969</v>
@@ -38875,7 +38749,7 @@
         <v>5.060000000000008</v>
       </c>
       <c r="K751" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L751" t="n">
         <v>6.40799999999997</v>
@@ -39028,7 +38902,7 @@
         <v>5.080000000000007</v>
       </c>
       <c r="K754" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L754" t="n">
         <v>6.406999999999971</v>
@@ -39079,7 +38953,7 @@
         <v>5.090000000000007</v>
       </c>
       <c r="K755" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L755" t="n">
         <v>6.406999999999971</v>
@@ -39232,7 +39106,7 @@
         <v>5.120000000000007</v>
       </c>
       <c r="K758" t="n">
-        <v>33.33333333333399</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L758" t="n">
         <v>6.411999999999972</v>
@@ -39283,7 +39157,7 @@
         <v>5.130000000000007</v>
       </c>
       <c r="K759" t="n">
-        <v>40.00000000000053</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L759" t="n">
         <v>6.416999999999971</v>
@@ -39334,7 +39208,7 @@
         <v>5.140000000000007</v>
       </c>
       <c r="K760" t="n">
-        <v>45.45454545454589</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L760" t="n">
         <v>6.421999999999971</v>
@@ -39385,7 +39259,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K761" t="n">
-        <v>33.33333333333383</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L761" t="n">
         <v>6.426999999999971</v>
@@ -39436,7 +39310,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K762" t="n">
-        <v>33.33333333333383</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L762" t="n">
         <v>6.430999999999972</v>
@@ -39487,7 +39361,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K763" t="n">
-        <v>33.33333333333383</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L763" t="n">
         <v>6.434999999999972</v>
@@ -39538,7 +39412,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K764" t="n">
-        <v>33.33333333333383</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L764" t="n">
         <v>6.439999999999972</v>
@@ -39589,7 +39463,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K765" t="n">
-        <v>33.33333333333383</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L765" t="n">
         <v>6.443999999999972</v>
@@ -39640,7 +39514,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K766" t="n">
-        <v>33.33333333333383</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L766" t="n">
         <v>6.447999999999974</v>
@@ -39691,7 +39565,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K767" t="n">
-        <v>33.33333333333383</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L767" t="n">
         <v>6.449999999999974</v>
@@ -39742,7 +39616,7 @@
         <v>5.150000000000007</v>
       </c>
       <c r="K768" t="n">
-        <v>33.33333333333383</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>6.450999999999975</v>
@@ -39793,7 +39667,7 @@
         <v>5.180000000000007</v>
       </c>
       <c r="K769" t="n">
-        <v>14.28571428571411</v>
+        <v>-100</v>
       </c>
       <c r="L769" t="n">
         <v>6.447999999999975</v>
@@ -39844,7 +39718,7 @@
         <v>5.190000000000007</v>
       </c>
       <c r="K770" t="n">
-        <v>14.28571428571411</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L770" t="n">
         <v>6.444999999999975</v>
@@ -39895,7 +39769,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K771" t="n">
-        <v>14.28571428571411</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L771" t="n">
         <v>6.441999999999974</v>
@@ -39946,7 +39820,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K772" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L772" t="n">
         <v>6.437999999999974</v>
@@ -39997,7 +39871,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K773" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L773" t="n">
         <v>6.433999999999974</v>
@@ -40048,7 +39922,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K774" t="n">
-        <v>7.692307692307587</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L774" t="n">
         <v>6.429999999999973</v>
@@ -40103,7 +39977,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K775" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L775" t="n">
         <v>6.425999999999972</v>
@@ -40162,7 +40036,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K776" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L776" t="n">
         <v>6.421999999999971</v>
@@ -40221,7 +40095,7 @@
         <v>5.210000000000006</v>
       </c>
       <c r="K777" t="n">
-        <v>-19.99999999999964</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L777" t="n">
         <v>6.417999999999971</v>
@@ -40280,7 +40154,7 @@
         <v>5.220000000000006</v>
       </c>
       <c r="K778" t="n">
-        <v>-40.00000000000053</v>
+        <v>-50</v>
       </c>
       <c r="L778" t="n">
         <v>6.412999999999971</v>
@@ -40339,7 +40213,7 @@
         <v>5.220000000000006</v>
       </c>
       <c r="K779" t="n">
-        <v>-55.55555555555599</v>
+        <v>-100</v>
       </c>
       <c r="L779" t="n">
         <v>6.410999999999971</v>
@@ -40398,7 +40272,7 @@
         <v>5.220000000000006</v>
       </c>
       <c r="K780" t="n">
-        <v>-75.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L780" t="n">
         <v>6.407999999999973</v>
@@ -40457,7 +40331,7 @@
         <v>5.230000000000007</v>
       </c>
       <c r="K781" t="n">
-        <v>-75.00000000000055</v>
+        <v>-100</v>
       </c>
       <c r="L781" t="n">
         <v>6.404999999999973</v>
@@ -40512,7 +40386,7 @@
         <v>5.270000000000007</v>
       </c>
       <c r="K782" t="n">
-        <v>-83.3333333333337</v>
+        <v>-100</v>
       </c>
       <c r="L782" t="n">
         <v>6.398999999999972</v>
@@ -40569,7 +40443,7 @@
         <v>5.290000000000006</v>
       </c>
       <c r="K783" t="n">
-        <v>-85.71428571428599</v>
+        <v>-100</v>
       </c>
       <c r="L783" t="n">
         <v>6.390999999999972</v>
@@ -40626,7 +40500,7 @@
         <v>5.300000000000006</v>
       </c>
       <c r="K784" t="n">
-        <v>-73.33333333333381</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L784" t="n">
         <v>6.383999999999974</v>
@@ -40683,7 +40557,7 @@
         <v>5.310000000000006</v>
       </c>
       <c r="K785" t="n">
-        <v>-62.50000000000063</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L785" t="n">
         <v>6.377999999999973</v>
@@ -40740,7 +40614,7 @@
         <v>5.310000000000006</v>
       </c>
       <c r="K786" t="n">
-        <v>-62.50000000000063</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L786" t="n">
         <v>6.371999999999973</v>
@@ -40797,7 +40671,7 @@
         <v>5.310000000000006</v>
       </c>
       <c r="K787" t="n">
-        <v>-62.50000000000063</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L787" t="n">
         <v>6.365999999999973</v>
@@ -40854,7 +40728,7 @@
         <v>5.310000000000006</v>
       </c>
       <c r="K788" t="n">
-        <v>-62.50000000000063</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L788" t="n">
         <v>6.360999999999972</v>
@@ -40911,7 +40785,7 @@
         <v>5.330000000000006</v>
       </c>
       <c r="K789" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L789" t="n">
         <v>6.357999999999972</v>
@@ -40968,7 +40842,7 @@
         <v>5.330000000000006</v>
       </c>
       <c r="K790" t="n">
-        <v>-42.85714285714268</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L790" t="n">
         <v>6.354999999999972</v>
@@ -41025,7 +40899,7 @@
         <v>5.340000000000006</v>
       </c>
       <c r="K791" t="n">
-        <v>-28.57142857142867</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L791" t="n">
         <v>6.353999999999973</v>
@@ -41082,7 +40956,7 @@
         <v>5.340000000000006</v>
       </c>
       <c r="K792" t="n">
-        <v>-23.07692307692329</v>
+        <v>100</v>
       </c>
       <c r="L792" t="n">
         <v>6.356999999999972</v>
@@ -41139,7 +41013,7 @@
         <v>5.340000000000006</v>
       </c>
       <c r="K793" t="n">
-        <v>-23.07692307692329</v>
+        <v>100</v>
       </c>
       <c r="L793" t="n">
         <v>6.361999999999972</v>
@@ -41196,7 +41070,7 @@
         <v>5.340000000000006</v>
       </c>
       <c r="K794" t="n">
-        <v>-23.07692307692329</v>
+        <v>100</v>
       </c>
       <c r="L794" t="n">
         <v>6.365999999999971</v>
@@ -41253,7 +41127,7 @@
         <v>5.360000000000007</v>
       </c>
       <c r="K795" t="n">
-        <v>-6.666666666666508</v>
+        <v>100</v>
       </c>
       <c r="L795" t="n">
         <v>6.370999999999972</v>
@@ -41310,7 +41184,7 @@
         <v>5.370000000000006</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L796" t="n">
         <v>6.376999999999972</v>
@@ -41367,7 +41241,7 @@
         <v>5.380000000000006</v>
       </c>
       <c r="K797" t="n">
-        <v>-5.882352941176348</v>
+        <v>71.42857142857216</v>
       </c>
       <c r="L797" t="n">
         <v>6.381999999999971</v>
@@ -41424,7 +41298,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K798" t="n">
-        <v>5.882352941176348</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L798" t="n">
         <v>6.387999999999971</v>
@@ -41481,7 +41355,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K799" t="n">
-        <v>5.882352941176348</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L799" t="n">
         <v>6.391999999999973</v>
@@ -41538,7 +41412,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K800" t="n">
-        <v>5.882352941176348</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L800" t="n">
         <v>6.395999999999973</v>
@@ -41589,7 +41463,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K801" t="n">
-        <v>12.50000000000035</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L801" t="n">
         <v>6.398999999999973</v>
@@ -41640,7 +41514,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K802" t="n">
-        <v>50.00000000000075</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L802" t="n">
         <v>6.401999999999974</v>
@@ -41691,7 +41565,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K803" t="n">
-        <v>80.00000000000036</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L803" t="n">
         <v>6.404999999999974</v>
@@ -41742,7 +41616,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K804" t="n">
-        <v>77.77777777777821</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L804" t="n">
         <v>6.407999999999975</v>
@@ -41793,7 +41667,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K805" t="n">
-        <v>75.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L805" t="n">
         <v>6.408999999999973</v>
@@ -41844,7 +41718,7 @@
         <v>5.390000000000006</v>
       </c>
       <c r="K806" t="n">
-        <v>75.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L806" t="n">
         <v>6.408999999999973</v>
@@ -41894,9 +41768,7 @@
       <c r="J807" t="n">
         <v>5.390000000000006</v>
       </c>
-      <c r="K807" t="n">
-        <v>75.00000000000055</v>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>6.409999999999973</v>
       </c>
@@ -41945,9 +41817,7 @@
       <c r="J808" t="n">
         <v>5.390000000000006</v>
       </c>
-      <c r="K808" t="n">
-        <v>75.00000000000055</v>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>6.409999999999973</v>
       </c>
@@ -41996,9 +41866,7 @@
       <c r="J809" t="n">
         <v>5.390000000000006</v>
       </c>
-      <c r="K809" t="n">
-        <v>66.66666666666717</v>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>6.409999999999973</v>
       </c>
@@ -42048,7 +41916,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K810" t="n">
-        <v>42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L810" t="n">
         <v>6.408999999999973</v>
@@ -42099,7 +41967,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K811" t="n">
-        <v>33.33333333333432</v>
+        <v>-100</v>
       </c>
       <c r="L811" t="n">
         <v>6.407999999999975</v>
@@ -42150,7 +42018,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K812" t="n">
-        <v>33.33333333333432</v>
+        <v>-100</v>
       </c>
       <c r="L812" t="n">
         <v>6.406999999999975</v>
@@ -42201,7 +42069,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K813" t="n">
-        <v>33.33333333333432</v>
+        <v>-100</v>
       </c>
       <c r="L813" t="n">
         <v>6.405999999999976</v>
@@ -42252,7 +42120,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K814" t="n">
-        <v>33.33333333333432</v>
+        <v>-100</v>
       </c>
       <c r="L814" t="n">
         <v>6.404999999999977</v>
@@ -42303,7 +42171,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K815" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L815" t="n">
         <v>6.403999999999978</v>
@@ -42354,7 +42222,7 @@
         <v>5.410000000000006</v>
       </c>
       <c r="K816" t="n">
-        <v>-50.00000000000111</v>
+        <v>-100</v>
       </c>
       <c r="L816" t="n">
         <v>6.401999999999978</v>
@@ -42405,7 +42273,7 @@
         <v>5.420000000000007</v>
       </c>
       <c r="K817" t="n">
-        <v>0</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L817" t="n">
         <v>6.400999999999979</v>
@@ -42507,7 +42375,7 @@
         <v>5.480000000000008</v>
       </c>
       <c r="K819" t="n">
-        <v>-77.77777777777668</v>
+        <v>-74.99999999999889</v>
       </c>
       <c r="L819" t="n">
         <v>6.39199999999998</v>
@@ -42558,7 +42426,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K820" t="n">
-        <v>-81.81818181818079</v>
+        <v>-79.99999999999893</v>
       </c>
       <c r="L820" t="n">
         <v>6.383999999999981</v>
@@ -42609,7 +42477,7 @@
         <v>5.510000000000008</v>
       </c>
       <c r="K821" t="n">
-        <v>-83.33333333333248</v>
+        <v>-81.81818181818093</v>
       </c>
       <c r="L821" t="n">
         <v>6.37499999999998</v>
@@ -42660,7 +42528,7 @@
         <v>5.510000000000008</v>
       </c>
       <c r="K822" t="n">
-        <v>-83.33333333333248</v>
+        <v>-81.81818181818093</v>
       </c>
       <c r="L822" t="n">
         <v>6.36599999999998</v>
@@ -42711,7 +42579,7 @@
         <v>5.510000000000008</v>
       </c>
       <c r="K823" t="n">
-        <v>-83.33333333333248</v>
+        <v>-81.81818181818093</v>
       </c>
       <c r="L823" t="n">
         <v>6.35699999999998</v>
@@ -42762,7 +42630,7 @@
         <v>5.520000000000008</v>
       </c>
       <c r="K824" t="n">
-        <v>-84.61538461538377</v>
+        <v>-83.33333333333248</v>
       </c>
       <c r="L824" t="n">
         <v>6.346999999999981</v>
@@ -42813,7 +42681,7 @@
         <v>5.520000000000008</v>
       </c>
       <c r="K825" t="n">
-        <v>-84.61538461538377</v>
+        <v>-81.81818181818079</v>
       </c>
       <c r="L825" t="n">
         <v>6.336999999999981</v>
@@ -42864,7 +42732,7 @@
         <v>5.520000000000008</v>
       </c>
       <c r="K826" t="n">
-        <v>-84.61538461538377</v>
+        <v>-100</v>
       </c>
       <c r="L826" t="n">
         <v>6.327999999999982</v>
@@ -42915,7 +42783,7 @@
         <v>5.530000000000007</v>
       </c>
       <c r="K827" t="n">
-        <v>-85.7142857142849</v>
+        <v>-100</v>
       </c>
       <c r="L827" t="n">
         <v>6.316999999999982</v>
@@ -42966,7 +42834,7 @@
         <v>5.540000000000007</v>
       </c>
       <c r="K828" t="n">
-        <v>-73.33333333333294</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L828" t="n">
         <v>6.307999999999983</v>
@@ -43017,7 +42885,7 @@
         <v>5.540000000000007</v>
       </c>
       <c r="K829" t="n">
-        <v>-73.33333333333294</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L829" t="n">
         <v>6.303999999999983</v>
@@ -43068,7 +42936,7 @@
         <v>5.540000000000007</v>
       </c>
       <c r="K830" t="n">
-        <v>-71.42857142857106</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L830" t="n">
         <v>6.301999999999982</v>
@@ -43119,7 +42987,7 @@
         <v>5.540000000000007</v>
       </c>
       <c r="K831" t="n">
-        <v>-71.42857142857106</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L831" t="n">
         <v>6.300999999999982</v>
@@ -43170,7 +43038,7 @@
         <v>5.580000000000007</v>
       </c>
       <c r="K832" t="n">
-        <v>-77.77777777777744</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L832" t="n">
         <v>6.295999999999982</v>
@@ -43221,7 +43089,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K833" t="n">
-        <v>-79.99999999999964</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L833" t="n">
         <v>6.288999999999982</v>
@@ -43272,7 +43140,7 @@
         <v>5.610000000000007</v>
       </c>
       <c r="K834" t="n">
-        <v>-71.4285714285713</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L834" t="n">
         <v>6.283999999999982</v>
@@ -43323,7 +43191,7 @@
         <v>5.610000000000007</v>
       </c>
       <c r="K835" t="n">
-        <v>-71.4285714285713</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L835" t="n">
         <v>6.278999999999982</v>
@@ -43374,7 +43242,7 @@
         <v>5.610000000000007</v>
       </c>
       <c r="K836" t="n">
-        <v>-69.99999999999977</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L836" t="n">
         <v>6.273999999999982</v>
@@ -43425,7 +43293,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K837" t="n">
-        <v>-80.00000000000036</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L837" t="n">
         <v>6.268999999999982</v>
@@ -43476,7 +43344,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K838" t="n">
-        <v>-78.94736842105291</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L838" t="n">
         <v>6.262999999999982</v>
@@ -43527,7 +43395,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K839" t="n">
-        <v>-71.4285714285718</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L839" t="n">
         <v>6.256999999999982</v>
@@ -43578,7 +43446,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K840" t="n">
-        <v>-66.66666666666717</v>
+        <v>-75.00000000000028</v>
       </c>
       <c r="L840" t="n">
         <v>6.250999999999982</v>
@@ -43629,7 +43497,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K841" t="n">
-        <v>-63.63636363636394</v>
+        <v>-50</v>
       </c>
       <c r="L841" t="n">
         <v>6.244999999999981</v>
@@ -43680,7 +43548,7 @@
         <v>5.630000000000006</v>
       </c>
       <c r="K842" t="n">
-        <v>-66.66666666666691</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L842" t="n">
         <v>6.241999999999982</v>
@@ -43731,7 +43599,7 @@
         <v>5.630000000000006</v>
       </c>
       <c r="K843" t="n">
-        <v>-66.66666666666691</v>
+        <v>-100</v>
       </c>
       <c r="L843" t="n">
         <v>6.240999999999982</v>
@@ -43782,7 +43650,7 @@
         <v>5.630000000000006</v>
       </c>
       <c r="K844" t="n">
-        <v>-63.63636363636394</v>
+        <v>-100</v>
       </c>
       <c r="L844" t="n">
         <v>6.238999999999981</v>
@@ -43833,7 +43701,7 @@
         <v>5.680000000000007</v>
       </c>
       <c r="K845" t="n">
-        <v>-75.00000000000043</v>
+        <v>-100</v>
       </c>
       <c r="L845" t="n">
         <v>6.231999999999982</v>
@@ -43884,7 +43752,7 @@
         <v>5.690000000000007</v>
       </c>
       <c r="K846" t="n">
-        <v>-76.47058823529449</v>
+        <v>-100</v>
       </c>
       <c r="L846" t="n">
         <v>6.223999999999982</v>
@@ -43935,7 +43803,7 @@
         <v>5.750000000000007</v>
       </c>
       <c r="K847" t="n">
-        <v>-27.27272727272713</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L847" t="n">
         <v>6.222999999999983</v>
@@ -43986,7 +43854,7 @@
         <v>5.750000000000007</v>
       </c>
       <c r="K848" t="n">
-        <v>-33.33333333333305</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L848" t="n">
         <v>6.221999999999982</v>
@@ -44037,7 +43905,7 @@
         <v>5.750000000000007</v>
       </c>
       <c r="K849" t="n">
-        <v>-33.33333333333305</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L849" t="n">
         <v>6.220999999999981</v>
@@ -44088,7 +43956,7 @@
         <v>5.760000000000007</v>
       </c>
       <c r="K850" t="n">
-        <v>-27.27272727272713</v>
+        <v>0</v>
       </c>
       <c r="L850" t="n">
         <v>6.220999999999981</v>
@@ -44139,7 +44007,7 @@
         <v>5.780000000000006</v>
       </c>
       <c r="K851" t="n">
-        <v>-16.66666666666673</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L851" t="n">
         <v>6.222999999999981</v>
@@ -44190,7 +44058,7 @@
         <v>5.790000000000006</v>
       </c>
       <c r="K852" t="n">
-        <v>4.761904761904681</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L852" t="n">
         <v>6.226999999999981</v>
@@ -44241,7 +44109,7 @@
         <v>5.790000000000006</v>
       </c>
       <c r="K853" t="n">
-        <v>15.78947368421023</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L853" t="n">
         <v>6.23099999999998</v>
@@ -44292,7 +44160,7 @@
         <v>5.790000000000006</v>
       </c>
       <c r="K854" t="n">
-        <v>11.11111111111089</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L854" t="n">
         <v>6.23499999999998</v>
@@ -44343,7 +44211,7 @@
         <v>5.830000000000005</v>
       </c>
       <c r="K855" t="n">
-        <v>-9.090909090908944</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L855" t="n">
         <v>6.23999999999998</v>
@@ -44394,7 +44262,7 @@
         <v>5.850000000000005</v>
       </c>
       <c r="K856" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L856" t="n">
         <v>6.247999999999981</v>
@@ -44445,7 +44313,7 @@
         <v>5.850000000000005</v>
       </c>
       <c r="K857" t="n">
-        <v>4.347826086956454</v>
+        <v>20</v>
       </c>
       <c r="L857" t="n">
         <v>6.24999999999998</v>
@@ -44496,7 +44364,7 @@
         <v>5.860000000000005</v>
       </c>
       <c r="K858" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L858" t="n">
         <v>6.250999999999979</v>
@@ -44547,7 +44415,7 @@
         <v>5.870000000000005</v>
       </c>
       <c r="K859" t="n">
-        <v>3.999999999999943</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L859" t="n">
         <v>6.252999999999979</v>
@@ -44598,7 +44466,7 @@
         <v>5.870000000000005</v>
       </c>
       <c r="K860" t="n">
-        <v>3.999999999999943</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L860" t="n">
         <v>6.253999999999978</v>
@@ -44649,7 +44517,7 @@
         <v>5.870000000000005</v>
       </c>
       <c r="K861" t="n">
-        <v>3.999999999999943</v>
+        <v>-25</v>
       </c>
       <c r="L861" t="n">
         <v>6.25299999999998</v>
@@ -44700,7 +44568,7 @@
         <v>5.880000000000004</v>
       </c>
       <c r="K862" t="n">
-        <v>3.999999999999943</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L862" t="n">
         <v>6.24999999999998</v>
@@ -44751,7 +44619,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K863" t="n">
-        <v>7.692307692307587</v>
+        <v>-20</v>
       </c>
       <c r="L863" t="n">
         <v>6.247999999999981</v>
@@ -44802,7 +44670,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K864" t="n">
-        <v>7.692307692307587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L864" t="n">
         <v>6.245999999999981</v>
@@ -44853,7 +44721,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K865" t="n">
-        <v>33.3333333333339</v>
+        <v>0</v>
       </c>
       <c r="L865" t="n">
         <v>6.247999999999981</v>
@@ -44904,7 +44772,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K866" t="n">
-        <v>40.00000000000053</v>
+        <v>0</v>
       </c>
       <c r="L866" t="n">
         <v>6.247999999999981</v>
@@ -44955,7 +44823,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K867" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L867" t="n">
         <v>6.247999999999981</v>
@@ -45006,7 +44874,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K868" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L868" t="n">
         <v>6.24899999999998</v>
@@ -45057,7 +44925,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K869" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L869" t="n">
         <v>6.248999999999981</v>
@@ -45108,7 +44976,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K870" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L870" t="n">
         <v>6.248999999999981</v>
@@ -45159,7 +45027,7 @@
         <v>5.890000000000004</v>
       </c>
       <c r="K871" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L871" t="n">
         <v>6.248999999999981</v>
@@ -45209,9 +45077,7 @@
       <c r="J872" t="n">
         <v>5.890000000000004</v>
       </c>
-      <c r="K872" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>6.24999999999998</v>
       </c>
@@ -45260,9 +45126,7 @@
       <c r="J873" t="n">
         <v>5.890000000000004</v>
       </c>
-      <c r="K873" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>6.24999999999998</v>
       </c>
@@ -45311,9 +45175,7 @@
       <c r="J874" t="n">
         <v>5.890000000000004</v>
       </c>
-      <c r="K874" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>6.24999999999998</v>
       </c>
@@ -45362,9 +45224,7 @@
       <c r="J875" t="n">
         <v>5.890000000000004</v>
       </c>
-      <c r="K875" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>6.24999999999998</v>
       </c>
@@ -45413,9 +45273,7 @@
       <c r="J876" t="n">
         <v>5.890000000000004</v>
       </c>
-      <c r="K876" t="n">
-        <v>0</v>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>6.24999999999998</v>
       </c>
@@ -45465,7 +45323,7 @@
         <v>5.900000000000004</v>
       </c>
       <c r="K877" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L877" t="n">
         <v>6.248999999999979</v>
@@ -45516,7 +45374,7 @@
         <v>5.900000000000004</v>
       </c>
       <c r="K878" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L878" t="n">
         <v>6.247999999999979</v>
@@ -45567,7 +45425,7 @@
         <v>5.910000000000004</v>
       </c>
       <c r="K879" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L879" t="n">
         <v>6.245999999999979</v>
@@ -45618,7 +45476,7 @@
         <v>5.910000000000004</v>
       </c>
       <c r="K880" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L880" t="n">
         <v>6.24399999999998</v>
@@ -45669,7 +45527,7 @@
         <v>5.910000000000004</v>
       </c>
       <c r="K881" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L881" t="n">
         <v>6.24199999999998</v>
@@ -45720,7 +45578,7 @@
         <v>5.910000000000004</v>
       </c>
       <c r="K882" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L882" t="n">
         <v>6.239999999999981</v>
@@ -46128,7 +45986,7 @@
         <v>5.980000000000004</v>
       </c>
       <c r="K890" t="n">
-        <v>-77.77777777777821</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L890" t="n">
         <v>6.209999999999978</v>
@@ -46179,7 +46037,7 @@
         <v>5.980000000000004</v>
       </c>
       <c r="K891" t="n">
-        <v>-77.77777777777821</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L891" t="n">
         <v>6.204999999999977</v>
@@ -46230,7 +46088,7 @@
         <v>5.980000000000004</v>
       </c>
       <c r="K892" t="n">
-        <v>-77.77777777777821</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L892" t="n">
         <v>6.199999999999976</v>
@@ -46281,7 +46139,7 @@
         <v>5.990000000000005</v>
       </c>
       <c r="K893" t="n">
-        <v>-59.99999999999929</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L893" t="n">
         <v>6.195999999999975</v>
@@ -46332,7 +46190,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K894" t="n">
-        <v>-45.45454545454516</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L894" t="n">
         <v>6.192999999999975</v>
@@ -46383,7 +46241,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K895" t="n">
-        <v>-45.45454545454516</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L895" t="n">
         <v>6.190999999999976</v>
@@ -46434,7 +46292,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K896" t="n">
-        <v>-45.45454545454516</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L896" t="n">
         <v>6.188999999999976</v>
@@ -46485,7 +46343,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K897" t="n">
-        <v>-39.99999999999982</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L897" t="n">
         <v>6.187999999999976</v>
@@ -46536,7 +46394,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K898" t="n">
-        <v>-39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L898" t="n">
         <v>6.189999999999976</v>
@@ -46587,7 +46445,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K899" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L899" t="n">
         <v>6.192999999999975</v>
@@ -46638,7 +46496,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K900" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L900" t="n">
         <v>6.194999999999975</v>
@@ -46689,7 +46547,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K901" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L901" t="n">
         <v>6.196999999999975</v>
@@ -46740,7 +46598,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K902" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L902" t="n">
         <v>6.198999999999975</v>
@@ -46790,9 +46648,7 @@
       <c r="J903" t="n">
         <v>6.000000000000004</v>
       </c>
-      <c r="K903" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>6.199999999999974</v>
       </c>
@@ -46841,9 +46697,7 @@
       <c r="J904" t="n">
         <v>6.000000000000004</v>
       </c>
-      <c r="K904" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>6.199999999999974</v>
       </c>
@@ -46892,9 +46746,7 @@
       <c r="J905" t="n">
         <v>6.000000000000004</v>
       </c>
-      <c r="K905" t="n">
-        <v>-24.99999999999945</v>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>6.199999999999974</v>
       </c>
@@ -46944,7 +46796,7 @@
         <v>6.010000000000004</v>
       </c>
       <c r="K906" t="n">
-        <v>-33.33333333333267</v>
+        <v>-100</v>
       </c>
       <c r="L906" t="n">
         <v>6.198999999999974</v>
@@ -46995,7 +46847,7 @@
         <v>6.020000000000004</v>
       </c>
       <c r="K907" t="n">
-        <v>-11.11111111111089</v>
+        <v>0</v>
       </c>
       <c r="L907" t="n">
         <v>6.198999999999974</v>
@@ -47046,7 +46898,7 @@
         <v>6.030000000000004</v>
       </c>
       <c r="K908" t="n">
-        <v>14.28571428571537</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L908" t="n">
         <v>6.197999999999974</v>
@@ -47097,7 +46949,7 @@
         <v>6.040000000000004</v>
       </c>
       <c r="K909" t="n">
-        <v>14.28571428571392</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L909" t="n">
         <v>6.195999999999974</v>
@@ -47148,7 +47000,7 @@
         <v>6.050000000000004</v>
       </c>
       <c r="K910" t="n">
-        <v>-14.28571428571392</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L910" t="n">
         <v>6.192999999999974</v>
@@ -47199,7 +47051,7 @@
         <v>6.050000000000004</v>
       </c>
       <c r="K911" t="n">
-        <v>-14.28571428571392</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L911" t="n">
         <v>6.189999999999974</v>
@@ -47250,7 +47102,7 @@
         <v>6.050000000000004</v>
       </c>
       <c r="K912" t="n">
-        <v>-14.28571428571392</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L912" t="n">
         <v>6.186999999999974</v>
@@ -47301,7 +47153,7 @@
         <v>6.050000000000004</v>
       </c>
       <c r="K913" t="n">
-        <v>-33.33333333333432</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L913" t="n">
         <v>6.183999999999974</v>
@@ -47403,7 +47255,7 @@
         <v>6.060000000000004</v>
       </c>
       <c r="K915" t="n">
-        <v>-66.66666666666717</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L915" t="n">
         <v>6.176999999999973</v>
@@ -47454,7 +47306,7 @@
         <v>6.070000000000004</v>
       </c>
       <c r="K916" t="n">
-        <v>-71.4285714285718</v>
+        <v>-100</v>
       </c>
       <c r="L916" t="n">
         <v>6.172999999999973</v>
@@ -47505,7 +47357,7 @@
         <v>6.080000000000004</v>
       </c>
       <c r="K917" t="n">
-        <v>-50.00000000000055</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L917" t="n">
         <v>6.168999999999973</v>
@@ -47556,7 +47408,7 @@
         <v>6.080000000000004</v>
       </c>
       <c r="K918" t="n">
-        <v>-50.00000000000055</v>
+        <v>-50</v>
       </c>
       <c r="L918" t="n">
         <v>6.165999999999973</v>
@@ -47607,7 +47459,7 @@
         <v>6.080000000000004</v>
       </c>
       <c r="K919" t="n">
-        <v>-50.00000000000055</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L919" t="n">
         <v>6.163999999999972</v>
@@ -47658,7 +47510,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K920" t="n">
-        <v>-55.55555555555599</v>
+        <v>-50</v>
       </c>
       <c r="L920" t="n">
         <v>6.161999999999972</v>
@@ -47709,7 +47561,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K921" t="n">
-        <v>-55.55555555555599</v>
+        <v>-50</v>
       </c>
       <c r="L921" t="n">
         <v>6.159999999999973</v>
@@ -47760,7 +47612,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K922" t="n">
-        <v>-55.55555555555599</v>
+        <v>-50</v>
       </c>
       <c r="L922" t="n">
         <v>6.157999999999973</v>
@@ -47811,7 +47663,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K923" t="n">
-        <v>-55.55555555555599</v>
+        <v>-50</v>
       </c>
       <c r="L923" t="n">
         <v>6.155999999999973</v>
@@ -47862,7 +47714,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K924" t="n">
-        <v>-55.55555555555599</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L924" t="n">
         <v>6.153999999999973</v>
@@ -47913,7 +47765,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K925" t="n">
-        <v>-55.55555555555599</v>
+        <v>0</v>
       </c>
       <c r="L925" t="n">
         <v>6.152999999999975</v>
@@ -47964,7 +47816,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K926" t="n">
-        <v>-50.00000000000055</v>
+        <v>-100</v>
       </c>
       <c r="L926" t="n">
         <v>6.152999999999976</v>
@@ -48015,7 +47867,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K927" t="n">
-        <v>-71.4285714285718</v>
+        <v>-100</v>
       </c>
       <c r="L927" t="n">
         <v>6.151999999999975</v>
@@ -48066,7 +47918,7 @@
         <v>6.090000000000003</v>
       </c>
       <c r="K928" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L928" t="n">
         <v>6.150999999999977</v>
@@ -48116,9 +47968,7 @@
       <c r="J929" t="n">
         <v>6.090000000000003</v>
       </c>
-      <c r="K929" t="n">
-        <v>-60</v>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>6.149999999999977</v>
       </c>
@@ -48168,7 +48018,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K930" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L930" t="n">
         <v>6.150999999999977</v>
@@ -48219,7 +48069,7 @@
         <v>6.110000000000003</v>
       </c>
       <c r="K931" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L931" t="n">
         <v>6.150999999999977</v>
@@ -48270,7 +48120,7 @@
         <v>6.110000000000003</v>
       </c>
       <c r="K932" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L932" t="n">
         <v>6.150999999999977</v>
@@ -48321,7 +48171,7 @@
         <v>6.110000000000003</v>
       </c>
       <c r="K933" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L933" t="n">
         <v>6.150999999999977</v>
@@ -48372,7 +48222,7 @@
         <v>6.110000000000003</v>
       </c>
       <c r="K934" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L934" t="n">
         <v>6.150999999999977</v>
@@ -48423,7 +48273,7 @@
         <v>6.110000000000003</v>
       </c>
       <c r="K935" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L935" t="n">
         <v>6.150999999999977</v>
@@ -48525,7 +48375,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K937" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L937" t="n">
         <v>6.151999999999978</v>
@@ -48576,7 +48426,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K938" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L938" t="n">
         <v>6.152999999999978</v>
@@ -48678,7 +48528,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K940" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L940" t="n">
         <v>6.153999999999979</v>
@@ -48729,7 +48579,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K941" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L941" t="n">
         <v>6.154999999999979</v>
@@ -48780,7 +48630,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K942" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L942" t="n">
         <v>6.155999999999979</v>
@@ -48831,7 +48681,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K943" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L943" t="n">
         <v>6.15699999999998</v>
@@ -48882,7 +48732,7 @@
         <v>6.120000000000003</v>
       </c>
       <c r="K944" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L944" t="n">
         <v>6.157999999999981</v>
@@ -48933,7 +48783,7 @@
         <v>6.180000000000003</v>
       </c>
       <c r="K945" t="n">
-        <v>-55.55555555555644</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L945" t="n">
         <v>6.152999999999981</v>
@@ -48984,7 +48834,7 @@
         <v>6.280000000000003</v>
       </c>
       <c r="K946" t="n">
-        <v>-78.94736842105303</v>
+        <v>-100</v>
       </c>
       <c r="L946" t="n">
         <v>6.13799999999998</v>
@@ -49035,7 +48885,7 @@
         <v>6.300000000000002</v>
       </c>
       <c r="K947" t="n">
-        <v>-61.90476190476255</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L947" t="n">
         <v>6.123999999999981</v>
@@ -49086,7 +48936,7 @@
         <v>6.320000000000002</v>
       </c>
       <c r="K948" t="n">
-        <v>-65.21739130434835</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L948" t="n">
         <v>6.107999999999981</v>
@@ -49137,7 +48987,7 @@
         <v>6.330000000000002</v>
       </c>
       <c r="K949" t="n">
-        <v>-58.33333333333395</v>
+        <v>-71.42857142857191</v>
       </c>
       <c r="L949" t="n">
         <v>6.092999999999982</v>
@@ -49188,7 +49038,7 @@
         <v>6.330000000000002</v>
       </c>
       <c r="K950" t="n">
-        <v>-65.21739130434835</v>
+        <v>-71.42857142857191</v>
       </c>
       <c r="L950" t="n">
         <v>6.077999999999983</v>
@@ -49239,7 +49089,7 @@
         <v>6.360000000000001</v>
       </c>
       <c r="K951" t="n">
-        <v>-68.00000000000045</v>
+        <v>-75.00000000000037</v>
       </c>
       <c r="L951" t="n">
         <v>6.059999999999984</v>
@@ -49290,7 +49140,7 @@
         <v>6.360000000000001</v>
       </c>
       <c r="K952" t="n">
-        <v>-68.00000000000045</v>
+        <v>-75.00000000000037</v>
       </c>
       <c r="L952" t="n">
         <v>6.041999999999985</v>
@@ -49341,7 +49191,7 @@
         <v>6.390000000000001</v>
       </c>
       <c r="K953" t="n">
-        <v>-50.00000000000063</v>
+        <v>-55.55555555555613</v>
       </c>
       <c r="L953" t="n">
         <v>6.026999999999985</v>
@@ -49392,7 +49242,7 @@
         <v>6.4</v>
       </c>
       <c r="K954" t="n">
-        <v>-51.72413793103507</v>
+        <v>-45.45454545454589</v>
       </c>
       <c r="L954" t="n">
         <v>6.010999999999986</v>
@@ -49443,7 +49293,7 @@
         <v>6.41</v>
       </c>
       <c r="K955" t="n">
-        <v>-46.6666666666673</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L955" t="n">
         <v>6.001999999999986</v>
@@ -49494,7 +49344,7 @@
         <v>6.41</v>
       </c>
       <c r="K956" t="n">
-        <v>-46.6666666666673</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L956" t="n">
         <v>6.002999999999986</v>
@@ -49545,7 +49395,7 @@
         <v>6.41</v>
       </c>
       <c r="K957" t="n">
-        <v>-51.72413793103507</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L957" t="n">
         <v>6.001999999999986</v>
@@ -49596,7 +49446,7 @@
         <v>6.45</v>
       </c>
       <c r="K958" t="n">
-        <v>-57.57575757575815</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L958" t="n">
         <v>5.998999999999986</v>
@@ -49647,7 +49497,7 @@
         <v>6.46</v>
       </c>
       <c r="K959" t="n">
-        <v>-58.82352941176524</v>
+        <v>-38.46153846153888</v>
       </c>
       <c r="L959" t="n">
         <v>5.993999999999986</v>
@@ -49698,7 +49548,7 @@
         <v>6.52</v>
       </c>
       <c r="K960" t="n">
-        <v>-35.00000000000042</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L960" t="n">
         <v>5.994999999999987</v>
@@ -49749,7 +49599,7 @@
         <v>6.549999999999999</v>
       </c>
       <c r="K961" t="n">
-        <v>-39.53488372093057</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L961" t="n">
         <v>5.995999999999986</v>
@@ -49800,7 +49650,7 @@
         <v>6.559999999999999</v>
       </c>
       <c r="K962" t="n">
-        <v>-36.36363636363673</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L962" t="n">
         <v>5.997999999999986</v>
@@ -49851,7 +49701,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="K963" t="n">
-        <v>-33.33333333333373</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L963" t="n">
         <v>5.997999999999987</v>
@@ -49902,7 +49752,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="K964" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L964" t="n">
         <v>5.998999999999986</v>
@@ -49953,7 +49803,7 @@
         <v>6.589999999999998</v>
       </c>
       <c r="K965" t="n">
-        <v>-26.82926829268313</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L965" t="n">
         <v>5.996999999999987</v>
@@ -50004,7 +49854,7 @@
         <v>6.589999999999998</v>
       </c>
       <c r="K966" t="n">
-        <v>-3.225806451612884</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L966" t="n">
         <v>5.994999999999987</v>
@@ -50055,7 +49905,7 @@
         <v>6.599999999999998</v>
       </c>
       <c r="K967" t="n">
-        <v>-13.33333333333326</v>
+        <v>6.666666666667219</v>
       </c>
       <c r="L967" t="n">
         <v>5.991999999999987</v>
@@ -50106,7 +49956,7 @@
         <v>6.609999999999999</v>
       </c>
       <c r="K968" t="n">
-        <v>-10.34482758620711</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L968" t="n">
         <v>5.991999999999988</v>
@@ -50157,7 +50007,7 @@
         <v>6.609999999999999</v>
       </c>
       <c r="K969" t="n">
-        <v>-14.28571428571447</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L969" t="n">
         <v>5.992999999999987</v>
@@ -50208,7 +50058,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K970" t="n">
-        <v>-17.24137931034497</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L970" t="n">
         <v>5.986999999999988</v>
@@ -50259,7 +50109,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K971" t="n">
-        <v>-7.692307692307955</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L971" t="n">
         <v>5.983999999999987</v>
@@ -50310,7 +50160,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K972" t="n">
-        <v>-7.692307692307955</v>
+        <v>-100</v>
       </c>
       <c r="L972" t="n">
         <v>5.979999999999987</v>
@@ -50361,7 +50211,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K973" t="n">
-        <v>-21.73913043478274</v>
+        <v>-100</v>
       </c>
       <c r="L973" t="n">
         <v>5.974999999999986</v>
@@ -50412,7 +50262,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K974" t="n">
-        <v>-18.18181818181836</v>
+        <v>-100</v>
       </c>
       <c r="L974" t="n">
         <v>5.969999999999986</v>
@@ -50463,7 +50313,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K975" t="n">
-        <v>-23.80952380952393</v>
+        <v>-100</v>
       </c>
       <c r="L975" t="n">
         <v>5.966999999999986</v>
@@ -50514,7 +50364,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K976" t="n">
-        <v>-23.80952380952393</v>
+        <v>-100</v>
       </c>
       <c r="L976" t="n">
         <v>5.963999999999986</v>
@@ -50565,7 +50415,7 @@
         <v>6.619999999999998</v>
       </c>
       <c r="K977" t="n">
-        <v>-23.80952380952393</v>
+        <v>-100</v>
       </c>
       <c r="L977" t="n">
         <v>5.961999999999986</v>
@@ -50718,7 +50568,7 @@
         <v>6.649999999999998</v>
       </c>
       <c r="K980" t="n">
-        <v>-38.46153846153888</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L980" t="n">
         <v>5.961999999999986</v>
@@ -50769,7 +50619,7 @@
         <v>6.659999999999998</v>
       </c>
       <c r="K981" t="n">
-        <v>-9.090909090908944</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L981" t="n">
         <v>5.963999999999985</v>
@@ -50820,7 +50670,7 @@
         <v>6.669999999999998</v>
       </c>
       <c r="K982" t="n">
-        <v>-9.090909090908944</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L982" t="n">
         <v>5.966999999999985</v>
@@ -50871,7 +50721,7 @@
         <v>6.669999999999998</v>
       </c>
       <c r="K983" t="n">
-        <v>-19.99999999999964</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L983" t="n">
         <v>5.969999999999986</v>
@@ -50922,7 +50772,7 @@
         <v>6.679999999999998</v>
       </c>
       <c r="K984" t="n">
-        <v>-9.090909090908944</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L984" t="n">
         <v>5.973999999999984</v>
@@ -50973,7 +50823,7 @@
         <v>6.689999999999998</v>
       </c>
       <c r="K985" t="n">
-        <v>19.99999999999964</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L985" t="n">
         <v>5.978999999999984</v>
@@ -51024,7 +50874,7 @@
         <v>6.709999999999998</v>
       </c>
       <c r="K986" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L986" t="n">
         <v>5.985999999999984</v>
@@ -51075,7 +50925,7 @@
         <v>6.729999999999998</v>
       </c>
       <c r="K987" t="n">
-        <v>53.84615384615342</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L987" t="n">
         <v>5.994999999999984</v>
@@ -51126,7 +50976,7 @@
         <v>6.749999999999998</v>
       </c>
       <c r="K988" t="n">
-        <v>71.42857142857197</v>
+        <v>100</v>
       </c>
       <c r="L988" t="n">
         <v>6.004999999999984</v>
@@ -51177,7 +51027,7 @@
         <v>6.769999999999999</v>
       </c>
       <c r="K989" t="n">
-        <v>50</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L989" t="n">
         <v>6.013999999999983</v>
@@ -51228,7 +51078,7 @@
         <v>6.779999999999998</v>
       </c>
       <c r="K990" t="n">
-        <v>62.49999999999972</v>
+        <v>66.66666666666593</v>
       </c>
       <c r="L990" t="n">
         <v>6.022999999999984</v>
@@ -51279,7 +51129,7 @@
         <v>6.779999999999998</v>
       </c>
       <c r="K991" t="n">
-        <v>62.49999999999972</v>
+        <v>63.6363636363629</v>
       </c>
       <c r="L991" t="n">
         <v>6.030999999999983</v>
@@ -51330,7 +51180,7 @@
         <v>6.779999999999998</v>
       </c>
       <c r="K992" t="n">
-        <v>62.49999999999972</v>
+        <v>63.6363636363629</v>
       </c>
       <c r="L992" t="n">
         <v>6.037999999999983</v>
@@ -51381,7 +51231,7 @@
         <v>6.789999999999998</v>
       </c>
       <c r="K993" t="n">
-        <v>52.94117647058817</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L993" t="n">
         <v>6.043999999999984</v>
@@ -51432,7 +51282,7 @@
         <v>6.799999999999998</v>
       </c>
       <c r="K994" t="n">
-        <v>44.44444444444456</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L994" t="n">
         <v>6.047999999999983</v>
@@ -51483,7 +51333,7 @@
         <v>6.809999999999998</v>
       </c>
       <c r="K995" t="n">
-        <v>36.84210526315815</v>
+        <v>0</v>
       </c>
       <c r="L995" t="n">
         <v>6.049999999999984</v>
@@ -51534,7 +51384,7 @@
         <v>6.819999999999998</v>
       </c>
       <c r="K996" t="n">
-        <v>40.00000000000018</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L996" t="n">
         <v>6.050999999999983</v>
@@ -51585,7 +51435,7 @@
         <v>6.819999999999998</v>
       </c>
       <c r="K997" t="n">
-        <v>40.00000000000018</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L997" t="n">
         <v>6.049999999999985</v>
@@ -51636,7 +51486,7 @@
         <v>6.819999999999998</v>
       </c>
       <c r="K998" t="n">
-        <v>36.84210526315815</v>
+        <v>-20</v>
       </c>
       <c r="L998" t="n">
         <v>6.046999999999985</v>
@@ -51687,7 +51537,7 @@
         <v>6.829999999999997</v>
       </c>
       <c r="K999" t="n">
-        <v>36.84210526315815</v>
+        <v>-60</v>
       </c>
       <c r="L999" t="n">
         <v>6.044999999999985</v>
@@ -51738,7 +51588,7 @@
         <v>6.839999999999997</v>
       </c>
       <c r="K1000" t="n">
-        <v>36.84210526315815</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1000" t="n">
         <v>6.042999999999985</v>
@@ -51789,7 +51639,7 @@
         <v>6.839999999999997</v>
       </c>
       <c r="K1001" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1001" t="n">
         <v>6.040999999999985</v>
@@ -51840,7 +51690,7 @@
         <v>6.849999999999997</v>
       </c>
       <c r="K1002" t="n">
-        <v>22.22222222222239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1002" t="n">
         <v>6.037999999999985</v>
@@ -51891,7 +51741,7 @@
         <v>6.859999999999997</v>
       </c>
       <c r="K1003" t="n">
-        <v>26.31578947368431</v>
+        <v>0</v>
       </c>
       <c r="L1003" t="n">
         <v>6.036999999999987</v>
@@ -51942,7 +51792,7 @@
         <v>6.859999999999997</v>
       </c>
       <c r="K1004" t="n">
-        <v>22.22222222222239</v>
+        <v>20</v>
       </c>
       <c r="L1004" t="n">
         <v>6.036999999999987</v>
@@ -51993,7 +51843,7 @@
         <v>6.869999999999997</v>
       </c>
       <c r="K1005" t="n">
-        <v>22.22222222222239</v>
+        <v>20</v>
       </c>
       <c r="L1005" t="n">
         <v>6.038999999999987</v>
@@ -52044,7 +51894,7 @@
         <v>6.869999999999997</v>
       </c>
       <c r="K1006" t="n">
-        <v>12.49999999999986</v>
+        <v>20</v>
       </c>
       <c r="L1006" t="n">
         <v>6.039999999999987</v>
@@ -52095,7 +51945,7 @@
         <v>6.879999999999996</v>
       </c>
       <c r="K1007" t="n">
-        <v>6.666666666666588</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1007" t="n">
         <v>6.041999999999986</v>
@@ -52146,7 +51996,7 @@
         <v>6.889999999999996</v>
       </c>
       <c r="K1008" t="n">
-        <v>-14.28571428571483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1008" t="n">
         <v>6.042999999999987</v>
@@ -52197,7 +52047,7 @@
         <v>6.899999999999996</v>
       </c>
       <c r="K1009" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1009" t="n">
         <v>6.045999999999987</v>
@@ -52248,7 +52098,7 @@
         <v>6.909999999999996</v>
       </c>
       <c r="K1010" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1010" t="n">
         <v>6.046999999999986</v>
@@ -52299,7 +52149,7 @@
         <v>6.919999999999995</v>
       </c>
       <c r="K1011" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L1011" t="n">
         <v>6.048999999999986</v>
@@ -52350,7 +52200,7 @@
         <v>6.919999999999995</v>
       </c>
       <c r="K1012" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1012" t="n">
         <v>6.051999999999985</v>
@@ -52401,7 +52251,7 @@
         <v>6.919999999999995</v>
       </c>
       <c r="K1013" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1013" t="n">
         <v>6.053999999999986</v>
@@ -52452,7 +52302,7 @@
         <v>6.929999999999995</v>
       </c>
       <c r="K1014" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L1014" t="n">
         <v>6.054999999999986</v>
@@ -52503,7 +52353,7 @@
         <v>6.959999999999996</v>
       </c>
       <c r="K1015" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L1015" t="n">
         <v>6.057999999999987</v>
@@ -52554,7 +52404,7 @@
         <v>6.969999999999995</v>
       </c>
       <c r="K1016" t="n">
-        <v>20.00000000000047</v>
+        <v>11.11111111111199</v>
       </c>
       <c r="L1016" t="n">
         <v>6.059999999999986</v>
@@ -52605,7 +52455,7 @@
         <v>6.979999999999995</v>
       </c>
       <c r="K1017" t="n">
-        <v>25.00000000000042</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L1017" t="n">
         <v>6.061999999999986</v>
@@ -52656,7 +52506,7 @@
         <v>6.979999999999995</v>
       </c>
       <c r="K1018" t="n">
-        <v>25.00000000000042</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L1018" t="n">
         <v>6.064999999999986</v>
@@ -52707,7 +52557,7 @@
         <v>6.979999999999995</v>
       </c>
       <c r="K1019" t="n">
-        <v>33.33333333333373</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L1019" t="n">
         <v>6.066999999999986</v>
@@ -52758,7 +52608,7 @@
         <v>6.979999999999995</v>
       </c>
       <c r="K1020" t="n">
-        <v>28.57142857142902</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L1020" t="n">
         <v>6.069999999999986</v>
@@ -52809,7 +52659,7 @@
         <v>6.989999999999995</v>
       </c>
       <c r="K1021" t="n">
-        <v>20.00000000000047</v>
+        <v>14.28571428571537</v>
       </c>
       <c r="L1021" t="n">
         <v>6.070999999999986</v>
@@ -52860,7 +52710,7 @@
         <v>6.989999999999995</v>
       </c>
       <c r="K1022" t="n">
-        <v>28.57142857142902</v>
+        <v>14.28571428571537</v>
       </c>
       <c r="L1022" t="n">
         <v>6.071999999999986</v>
@@ -52911,7 +52761,7 @@
         <v>7.009999999999994</v>
       </c>
       <c r="K1023" t="n">
-        <v>33.33333333333373</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L1023" t="n">
         <v>6.074999999999986</v>
@@ -52962,7 +52812,7 @@
         <v>7.009999999999994</v>
       </c>
       <c r="K1024" t="n">
-        <v>33.33333333333373</v>
+        <v>20</v>
       </c>
       <c r="L1024" t="n">
         <v>6.078999999999986</v>
@@ -53013,7 +52863,7 @@
         <v>7.029999999999994</v>
       </c>
       <c r="K1025" t="n">
-        <v>12.50000000000048</v>
+        <v>0</v>
       </c>
       <c r="L1025" t="n">
         <v>6.077999999999987</v>
@@ -53064,7 +52914,7 @@
         <v>7.039999999999994</v>
       </c>
       <c r="K1026" t="n">
-        <v>17.64705882352984</v>
+        <v>0</v>
       </c>
       <c r="L1026" t="n">
         <v>6.078999999999987</v>
@@ -53115,7 +52965,7 @@
         <v>7.039999999999994</v>
       </c>
       <c r="K1027" t="n">
-        <v>12.50000000000048</v>
+        <v>0</v>
       </c>
       <c r="L1027" t="n">
         <v>6.078999999999988</v>
@@ -53166,7 +53016,7 @@
         <v>7.039999999999994</v>
       </c>
       <c r="K1028" t="n">
-        <v>20.00000000000047</v>
+        <v>0</v>
       </c>
       <c r="L1028" t="n">
         <v>6.078999999999988</v>
@@ -53217,7 +53067,7 @@
         <v>7.039999999999994</v>
       </c>
       <c r="K1029" t="n">
-        <v>14.28571428571483</v>
+        <v>0</v>
       </c>
       <c r="L1029" t="n">
         <v>6.078999999999988</v>
@@ -53268,7 +53118,7 @@
         <v>7.049999999999994</v>
       </c>
       <c r="K1030" t="n">
-        <v>14.28571428571483</v>
+        <v>0</v>
       </c>
       <c r="L1030" t="n">
         <v>6.077999999999987</v>
@@ -53319,7 +53169,7 @@
         <v>7.059999999999994</v>
       </c>
       <c r="K1031" t="n">
-        <v>0</v>
+        <v>-14.28571428571537</v>
       </c>
       <c r="L1031" t="n">
         <v>6.076999999999988</v>
@@ -53370,7 +53220,7 @@
         <v>7.069999999999995</v>
       </c>
       <c r="K1032" t="n">
-        <v>6.666666666667139</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L1032" t="n">
         <v>6.076999999999988</v>
@@ -53421,7 +53271,7 @@
         <v>7.079999999999996</v>
       </c>
       <c r="K1033" t="n">
-        <v>0</v>
+        <v>-42.85714285714249</v>
       </c>
       <c r="L1033" t="n">
         <v>6.073999999999987</v>
@@ -53472,7 +53322,7 @@
         <v>7.079999999999996</v>
       </c>
       <c r="K1034" t="n">
-        <v>6.666666666666508</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L1034" t="n">
         <v>6.070999999999986</v>
@@ -53523,7 +53373,7 @@
         <v>7.089999999999995</v>
       </c>
       <c r="K1035" t="n">
-        <v>-23.07692307692329</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L1035" t="n">
         <v>6.068999999999987</v>
@@ -53574,7 +53424,7 @@
         <v>7.099999999999995</v>
       </c>
       <c r="K1036" t="n">
-        <v>-7.692307692308217</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1036" t="n">
         <v>6.066999999999986</v>
@@ -53625,7 +53475,7 @@
         <v>7.099999999999995</v>
       </c>
       <c r="K1037" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1037" t="n">
         <v>6.064999999999986</v>
@@ -53676,7 +53526,7 @@
         <v>7.099999999999995</v>
       </c>
       <c r="K1038" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1038" t="n">
         <v>6.062999999999986</v>
@@ -53727,7 +53577,7 @@
         <v>7.099999999999995</v>
       </c>
       <c r="K1039" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L1039" t="n">
         <v>6.060999999999988</v>
@@ -53778,7 +53628,7 @@
         <v>7.099999999999995</v>
       </c>
       <c r="K1040" t="n">
-        <v>-16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L1040" t="n">
         <v>6.059999999999987</v>
@@ -53829,7 +53679,7 @@
         <v>7.109999999999995</v>
       </c>
       <c r="K1041" t="n">
-        <v>-16.66666666666704</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L1041" t="n">
         <v>6.058999999999988</v>
@@ -53880,7 +53730,7 @@
         <v>7.109999999999995</v>
       </c>
       <c r="K1042" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1042" t="n">
         <v>6.056999999999987</v>
@@ -53931,7 +53781,7 @@
         <v>7.119999999999995</v>
       </c>
       <c r="K1043" t="n">
-        <v>-27.27272727272742</v>
+        <v>0</v>
       </c>
       <c r="L1043" t="n">
         <v>6.056999999999986</v>
@@ -53982,7 +53832,7 @@
         <v>7.119999999999995</v>
       </c>
       <c r="K1044" t="n">
-        <v>-27.27272727272742</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1044" t="n">
         <v>6.056999999999986</v>
@@ -54033,7 +53883,7 @@
         <v>7.119999999999995</v>
       </c>
       <c r="K1045" t="n">
-        <v>-11.11111111111177</v>
+        <v>0</v>
       </c>
       <c r="L1045" t="n">
         <v>6.057999999999987</v>
@@ -54135,7 +53985,7 @@
         <v>7.139999999999994</v>
       </c>
       <c r="K1047" t="n">
-        <v>-39.99999999999982</v>
+        <v>-50</v>
       </c>
       <c r="L1047" t="n">
         <v>6.054999999999987</v>
@@ -54186,7 +54036,7 @@
         <v>7.149999999999994</v>
       </c>
       <c r="K1048" t="n">
-        <v>-45.45454545454516</v>
+        <v>-60</v>
       </c>
       <c r="L1048" t="n">
         <v>6.051999999999987</v>
@@ -54288,7 +54138,7 @@
         <v>7.159999999999994</v>
       </c>
       <c r="K1050" t="n">
-        <v>-27.27272727272742</v>
+        <v>-20</v>
       </c>
       <c r="L1050" t="n">
         <v>6.047999999999988</v>
@@ -54339,7 +54189,7 @@
         <v>7.159999999999994</v>
       </c>
       <c r="K1051" t="n">
-        <v>-19.99999999999964</v>
+        <v>-20</v>
       </c>
       <c r="L1051" t="n">
         <v>6.046999999999988</v>
@@ -54390,7 +54240,7 @@
         <v>7.159999999999994</v>
       </c>
       <c r="K1052" t="n">
-        <v>-33.33333333333399</v>
+        <v>-50</v>
       </c>
       <c r="L1052" t="n">
         <v>6.04599999999999</v>
@@ -54441,7 +54291,7 @@
         <v>7.159999999999994</v>
       </c>
       <c r="K1053" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L1053" t="n">
         <v>6.04399999999999</v>
@@ -54492,7 +54342,7 @@
         <v>7.159999999999994</v>
       </c>
       <c r="K1054" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L1054" t="n">
         <v>6.04199999999999</v>
@@ -54543,7 +54393,7 @@
         <v>7.169999999999994</v>
       </c>
       <c r="K1055" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L1055" t="n">
         <v>6.03899999999999</v>
@@ -54594,7 +54444,7 @@
         <v>7.169999999999994</v>
       </c>
       <c r="K1056" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1056" t="n">
         <v>6.03699999999999</v>
@@ -54645,7 +54495,7 @@
         <v>7.179999999999993</v>
       </c>
       <c r="K1057" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1057" t="n">
         <v>6.036999999999991</v>
@@ -54747,7 +54597,7 @@
         <v>7.199999999999993</v>
       </c>
       <c r="K1059" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1059" t="n">
         <v>6.036999999999991</v>
@@ -54798,7 +54648,7 @@
         <v>7.199999999999993</v>
       </c>
       <c r="K1060" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1060" t="n">
         <v>6.036999999999991</v>
@@ -54849,7 +54699,7 @@
         <v>7.209999999999993</v>
       </c>
       <c r="K1061" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1061" t="n">
         <v>6.037999999999991</v>
@@ -54900,7 +54750,7 @@
         <v>7.219999999999993</v>
       </c>
       <c r="K1062" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1062" t="n">
         <v>6.037999999999991</v>
@@ -54951,7 +54801,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1063" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1063" t="n">
         <v>6.038999999999993</v>
@@ -55002,7 +54852,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1064" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1064" t="n">
         <v>6.039999999999993</v>
@@ -55053,7 +54903,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1065" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1065" t="n">
         <v>6.041999999999993</v>
@@ -55104,7 +54954,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1066" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1066" t="n">
         <v>6.043999999999992</v>
@@ -55155,7 +55005,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1067" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L1067" t="n">
         <v>6.044999999999993</v>
@@ -55206,7 +55056,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1068" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1068" t="n">
         <v>6.046999999999993</v>
@@ -55257,7 +55107,7 @@
         <v>7.229999999999992</v>
       </c>
       <c r="K1069" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1069" t="n">
         <v>6.047999999999993</v>
@@ -55308,7 +55158,7 @@
         <v>7.239999999999992</v>
       </c>
       <c r="K1070" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1070" t="n">
         <v>6.049999999999992</v>
@@ -55359,7 +55209,7 @@
         <v>7.239999999999992</v>
       </c>
       <c r="K1071" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L1071" t="n">
         <v>6.050999999999992</v>
@@ -55410,7 +55260,7 @@
         <v>7.239999999999992</v>
       </c>
       <c r="K1072" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L1072" t="n">
         <v>6.052999999999992</v>
@@ -55461,7 +55311,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1073" t="n">
-        <v>33.33333333333399</v>
+        <v>100</v>
       </c>
       <c r="L1073" t="n">
         <v>6.054999999999993</v>
@@ -55512,7 +55362,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1074" t="n">
-        <v>33.33333333333399</v>
+        <v>100</v>
       </c>
       <c r="L1074" t="n">
         <v>6.056999999999992</v>
@@ -55563,7 +55413,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1075" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L1075" t="n">
         <v>6.058999999999993</v>
@@ -55614,7 +55464,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1076" t="n">
-        <v>50.00000000000055</v>
+        <v>100</v>
       </c>
       <c r="L1076" t="n">
         <v>6.060999999999995</v>
@@ -55665,7 +55515,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1077" t="n">
-        <v>42.85714285714358</v>
+        <v>100</v>
       </c>
       <c r="L1077" t="n">
         <v>6.062999999999995</v>
@@ -55716,7 +55566,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1078" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1078" t="n">
         <v>6.064999999999996</v>
@@ -55767,7 +55617,7 @@
         <v>7.249999999999993</v>
       </c>
       <c r="K1079" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L1079" t="n">
         <v>6.066999999999998</v>
@@ -55818,7 +55668,7 @@
         <v>7.259999999999993</v>
       </c>
       <c r="K1080" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1080" t="n">
         <v>6.068999999999997</v>
@@ -55869,7 +55719,7 @@
         <v>7.259999999999993</v>
       </c>
       <c r="K1081" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L1081" t="n">
         <v>6.070999999999996</v>
@@ -56073,7 +55923,7 @@
         <v>7.269999999999992</v>
       </c>
       <c r="K1085" t="n">
-        <v>50.00000000000111</v>
+        <v>0</v>
       </c>
       <c r="L1085" t="n">
         <v>6.074999999999997</v>
@@ -56124,7 +55974,7 @@
         <v>7.279999999999992</v>
       </c>
       <c r="K1086" t="n">
-        <v>60.00000000000071</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1086" t="n">
         <v>6.075999999999997</v>
@@ -56175,7 +56025,7 @@
         <v>7.279999999999992</v>
       </c>
       <c r="K1087" t="n">
-        <v>60.00000000000071</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1087" t="n">
         <v>6.076999999999997</v>
@@ -56226,7 +56076,7 @@
         <v>7.279999999999992</v>
       </c>
       <c r="K1088" t="n">
-        <v>60.00000000000071</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1088" t="n">
         <v>6.077999999999998</v>
@@ -56277,7 +56127,7 @@
         <v>7.279999999999992</v>
       </c>
       <c r="K1089" t="n">
-        <v>60.00000000000071</v>
+        <v>0</v>
       </c>
       <c r="L1089" t="n">
         <v>6.078999999999999</v>
@@ -56328,7 +56178,7 @@
         <v>7.279999999999992</v>
       </c>
       <c r="K1090" t="n">
-        <v>50.00000000000111</v>
+        <v>0</v>
       </c>
       <c r="L1090" t="n">
         <v>6.078999999999999</v>
@@ -56379,7 +56229,7 @@
         <v>7.289999999999992</v>
       </c>
       <c r="K1091" t="n">
-        <v>60.00000000000071</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1091" t="n">
         <v>6.08</v>
@@ -56430,7 +56280,7 @@
         <v>7.299999999999992</v>
       </c>
       <c r="K1092" t="n">
-        <v>66.66666666666717</v>
+        <v>50</v>
       </c>
       <c r="L1092" t="n">
         <v>6.081999999999999</v>
@@ -56481,7 +56331,7 @@
         <v>7.309999999999993</v>
       </c>
       <c r="K1093" t="n">
-        <v>66.66666666666717</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L1093" t="n">
         <v>6.084999999999999</v>
@@ -56532,7 +56382,7 @@
         <v>7.309999999999993</v>
       </c>
       <c r="K1094" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1094" t="n">
         <v>6.087999999999999</v>
@@ -56583,7 +56433,7 @@
         <v>7.309999999999993</v>
       </c>
       <c r="K1095" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1095" t="n">
         <v>6.092</v>
@@ -56634,7 +56484,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1096" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L1096" t="n">
         <v>6.095999999999999</v>
@@ -56685,7 +56535,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1097" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L1097" t="n">
         <v>6.1</v>
@@ -56736,7 +56586,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1098" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L1098" t="n">
         <v>6.104000000000001</v>
@@ -56787,7 +56637,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1099" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L1099" t="n">
         <v>6.108000000000001</v>
@@ -56838,7 +56688,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1100" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1100" t="n">
         <v>6.112000000000002</v>
@@ -56889,7 +56739,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1101" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1101" t="n">
         <v>6.115000000000002</v>
@@ -56940,7 +56790,7 @@
         <v>7.319999999999992</v>
       </c>
       <c r="K1102" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L1102" t="n">
         <v>6.117000000000003</v>

--- a/BackTest/2019-10-19 BackTest CON.xlsx
+++ b/BackTest/2019-10-19 BackTest CON.xlsx
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -33876,13 +33876,17 @@
         <v>6.132999999999996</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>0</v>
       </c>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K957" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L957" t="inlineStr"/>
       <c r="M957" t="n">
         <v>1</v>
@@ -33911,14 +33915,22 @@
         <v>6.129166666666663</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>0</v>
       </c>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K958" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -33946,14 +33958,22 @@
         <v>6.125166666666662</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>0</v>
       </c>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K959" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -33981,14 +34001,22 @@
         <v>6.122166666666662</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>0</v>
       </c>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="K960" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -34016,14 +34044,22 @@
         <v>6.118666666666663</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>0</v>
       </c>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K961" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -34057,8 +34093,14 @@
         <v>0</v>
       </c>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="K962" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -34092,8 +34134,14 @@
         <v>0</v>
       </c>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="K963" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -34127,8 +34175,14 @@
         <v>0</v>
       </c>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="K964" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -34162,8 +34216,14 @@
         <v>0</v>
       </c>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="K965" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -34197,8 +34257,14 @@
         <v>0</v>
       </c>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="K966" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -34232,8 +34298,14 @@
         <v>0</v>
       </c>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="K967" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -34261,18 +34333,18 @@
         <v>6.094833333333331</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I968" t="n">
         <v>0</v>
       </c>
-      <c r="J968" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M968" t="n">
@@ -34302,15 +34374,15 @@
         <v>6.091333333333332</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="n">
         <v>0</v>
       </c>
-      <c r="J969" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34343,15 +34415,15 @@
         <v>6.087833333333331</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I970" t="n">
         <v>0</v>
       </c>
-      <c r="J970" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34384,15 +34456,15 @@
         <v>6.084333333333331</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="n">
         <v>0</v>
       </c>
-      <c r="J971" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34425,15 +34497,15 @@
         <v>6.08083333333333</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="n">
         <v>0</v>
       </c>
-      <c r="J972" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34474,7 +34546,9 @@
       <c r="J973" t="n">
         <v>5.96</v>
       </c>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34515,7 +34589,9 @@
       <c r="J974" t="n">
         <v>5.96</v>
       </c>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34556,7 +34632,9 @@
       <c r="J975" t="n">
         <v>5.96</v>
       </c>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34589,15 +34667,15 @@
         <v>6.067333333333328</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I976" t="n">
         <v>0</v>
       </c>
-      <c r="J976" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34630,15 +34708,15 @@
         <v>6.063999999999994</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I977" t="n">
         <v>0</v>
       </c>
-      <c r="J977" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34671,15 +34749,15 @@
         <v>6.060833333333327</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="n">
         <v>0</v>
       </c>
-      <c r="J978" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34712,15 +34790,15 @@
         <v>6.057499999999993</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="n">
         <v>0</v>
       </c>
-      <c r="J979" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34753,15 +34831,15 @@
         <v>6.054499999999994</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I980" t="n">
         <v>0</v>
       </c>
-      <c r="J980" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34794,15 +34872,15 @@
         <v>6.051666666666661</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="n">
         <v>0</v>
       </c>
-      <c r="J981" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34835,15 +34913,15 @@
         <v>6.048999999999995</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I982" t="n">
         <v>0</v>
       </c>
-      <c r="J982" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34876,15 +34954,15 @@
         <v>6.046333333333329</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="n">
         <v>0</v>
       </c>
-      <c r="J983" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34917,15 +34995,15 @@
         <v>6.043833333333329</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I984" t="n">
         <v>0</v>
       </c>
-      <c r="J984" t="n">
-        <v>6</v>
-      </c>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34958,15 +35036,15 @@
         <v>6.041499999999997</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="n">
-        <v>6</v>
-      </c>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34999,15 +35077,15 @@
         <v>6.039499999999996</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="n">
         <v>0</v>
       </c>
-      <c r="J986" t="n">
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="n">
         <v>6.01</v>
       </c>
-      <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35040,15 +35118,15 @@
         <v>6.03783333333333</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="n">
         <v>0</v>
       </c>
-      <c r="J987" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35081,15 +35159,15 @@
         <v>6.036499999999998</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I988" t="n">
         <v>0</v>
       </c>
-      <c r="J988" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35122,15 +35200,15 @@
         <v>6.034833333333331</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="n">
         <v>0</v>
       </c>
-      <c r="J989" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35163,15 +35241,15 @@
         <v>6.033166666666664</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="n">
         <v>0</v>
       </c>
-      <c r="J990" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35204,15 +35282,15 @@
         <v>6.031666666666665</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="n">
         <v>0</v>
       </c>
-      <c r="J991" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35245,15 +35323,15 @@
         <v>6.030166666666664</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="n">
         <v>0</v>
       </c>
-      <c r="J992" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35292,7 +35370,9 @@
         <v>0</v>
       </c>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35331,7 +35411,9 @@
         <v>0</v>
       </c>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35370,7 +35452,9 @@
         <v>0</v>
       </c>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35409,7 +35493,9 @@
         <v>0</v>
       </c>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35448,7 +35534,9 @@
         <v>0</v>
       </c>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35487,7 +35575,9 @@
         <v>0</v>
       </c>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35526,7 +35616,9 @@
         <v>0</v>
       </c>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35565,7 +35657,9 @@
         <v>0</v>
       </c>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35598,15 +35692,15 @@
         <v>6.012666666666665</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="n">
         <v>0</v>
       </c>
-      <c r="J1001" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35645,7 +35739,9 @@
         <v>0</v>
       </c>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35684,7 +35780,9 @@
         <v>0</v>
       </c>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35717,15 +35815,15 @@
         <v>6.006499999999998</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="n">
         <v>0</v>
       </c>
-      <c r="J1004" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35764,7 +35862,9 @@
         <v>0</v>
       </c>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35803,7 +35903,9 @@
         <v>0</v>
       </c>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35842,7 +35944,9 @@
         <v>0</v>
       </c>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35881,7 +35985,9 @@
         <v>0</v>
       </c>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35920,7 +36026,9 @@
         <v>0</v>
       </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35959,7 +36067,9 @@
         <v>0</v>
       </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35998,7 +36108,9 @@
         <v>0</v>
       </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36037,7 +36149,9 @@
         <v>0</v>
       </c>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36076,7 +36190,9 @@
         <v>0</v>
       </c>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36115,7 +36231,9 @@
         <v>0</v>
       </c>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36154,7 +36272,9 @@
         <v>0</v>
       </c>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36193,7 +36313,9 @@
         <v>0</v>
       </c>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36232,7 +36354,9 @@
         <v>0</v>
       </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36271,7 +36395,9 @@
         <v>0</v>
       </c>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36310,7 +36436,9 @@
         <v>0</v>
       </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36349,7 +36477,9 @@
         <v>0</v>
       </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36388,7 +36518,9 @@
         <v>0</v>
       </c>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36427,7 +36559,9 @@
         <v>0</v>
       </c>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36466,7 +36600,9 @@
         <v>0</v>
       </c>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36505,7 +36641,9 @@
         <v>0</v>
       </c>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36544,7 +36682,9 @@
         <v>0</v>
       </c>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36583,7 +36723,9 @@
         <v>0</v>
       </c>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36622,7 +36764,9 @@
         <v>0</v>
       </c>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36661,7 +36805,9 @@
         <v>0</v>
       </c>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36700,7 +36846,9 @@
         <v>0</v>
       </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36739,7 +36887,9 @@
         <v>0</v>
       </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36778,7 +36928,9 @@
         <v>0</v>
       </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36817,7 +36969,9 @@
         <v>0</v>
       </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36856,7 +37010,9 @@
         <v>0</v>
       </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36895,7 +37051,9 @@
         <v>0</v>
       </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36934,7 +37092,9 @@
         <v>0</v>
       </c>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36973,7 +37133,9 @@
         <v>0</v>
       </c>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37012,7 +37174,9 @@
         <v>0</v>
       </c>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37051,7 +37215,9 @@
         <v>0</v>
       </c>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37090,7 +37256,9 @@
         <v>0</v>
       </c>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37129,7 +37297,9 @@
         <v>0</v>
       </c>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37168,7 +37338,9 @@
         <v>0</v>
       </c>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37207,7 +37379,9 @@
         <v>0</v>
       </c>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37246,7 +37420,9 @@
         <v>0</v>
       </c>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37285,7 +37461,9 @@
         <v>0</v>
       </c>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37324,7 +37502,9 @@
         <v>0</v>
       </c>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37363,7 +37543,9 @@
         <v>0</v>
       </c>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37402,7 +37584,9 @@
         <v>0</v>
       </c>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37441,7 +37625,9 @@
         <v>0</v>
       </c>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37480,7 +37666,9 @@
         <v>0</v>
       </c>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37519,7 +37707,9 @@
         <v>0</v>
       </c>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37558,7 +37748,9 @@
         <v>0</v>
       </c>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37597,7 +37789,9 @@
         <v>0</v>
       </c>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37636,7 +37830,9 @@
         <v>0</v>
       </c>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37675,7 +37871,9 @@
         <v>0</v>
       </c>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37714,7 +37912,9 @@
         <v>0</v>
       </c>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37753,7 +37953,9 @@
         <v>0</v>
       </c>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37792,7 +37994,9 @@
         <v>0</v>
       </c>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37831,7 +38035,9 @@
         <v>0</v>
       </c>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37870,7 +38076,9 @@
         <v>0</v>
       </c>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37909,7 +38117,9 @@
         <v>0</v>
       </c>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37948,7 +38158,9 @@
         <v>0</v>
       </c>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37987,7 +38199,9 @@
         <v>0</v>
       </c>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38026,7 +38240,9 @@
         <v>0</v>
       </c>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38065,7 +38281,9 @@
         <v>0</v>
       </c>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38104,7 +38322,9 @@
         <v>0</v>
       </c>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38143,7 +38363,9 @@
         <v>0</v>
       </c>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38182,7 +38404,9 @@
         <v>0</v>
       </c>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38221,7 +38445,9 @@
         <v>0</v>
       </c>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38260,7 +38486,9 @@
         <v>0</v>
       </c>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38299,7 +38527,9 @@
         <v>0</v>
       </c>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38338,7 +38568,9 @@
         <v>0</v>
       </c>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38377,7 +38609,9 @@
         <v>0</v>
       </c>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38416,7 +38650,9 @@
         <v>0</v>
       </c>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38455,7 +38691,9 @@
         <v>0</v>
       </c>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38494,7 +38732,9 @@
         <v>0</v>
       </c>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38533,7 +38773,9 @@
         <v>0</v>
       </c>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38572,7 +38814,9 @@
         <v>0</v>
       </c>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38611,7 +38855,9 @@
         <v>0</v>
       </c>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38650,7 +38896,9 @@
         <v>0</v>
       </c>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38689,7 +38937,9 @@
         <v>0</v>
       </c>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38728,7 +38978,9 @@
         <v>0</v>
       </c>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="n">
+        <v>6.01</v>
+      </c>
       <c r="L1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
